--- a/extracao.xlsx
+++ b/extracao.xlsx
@@ -712,11 +712,7 @@
           <t>what_matters_for_on_policy_dee</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>arXiv:1312.5602</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -742,11 +738,7 @@
           <t>2023 Seamless</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>arXiv:2106.01045</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -793,11 +785,7 @@
           <t>2023 Voicebox(1)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>arXiv:1809.11096</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -810,11 +798,7 @@
           <t>2023 VoiceBox</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>arXiv:1809.11096</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -929,11 +913,7 @@
           <t>Automatic Speech Recognition_ A Deep Learning_Approach</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>arXiv:1207.0580</t>
-        </is>
-      </c>
+      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1023,11 +1003,7 @@
           <t>Voicebox</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>arXiv:1809.11096</t>
-        </is>
-      </c>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1057,11 +1033,7 @@
           <t>whisper</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>arXiv:1512.02595</t>
-        </is>
-      </c>
+      <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1206,11 +1178,7 @@
           <t>2024 META Imagine Flash</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>arXiv:2303.08797</t>
-        </is>
-      </c>
+      <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1478,11 +1446,7 @@
           <t>ImagenVideo</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>arXiv:2110.01963</t>
-        </is>
-      </c>
+      <c r="C67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1546,11 +1510,7 @@
           <t>RePaint</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>arXiv:1809.11096</t>
-        </is>
-      </c>
+      <c r="C71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1580,11 +1540,7 @@
           <t>Resolution-robust large mask inpainting with_fourier convolutions</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>arXiv:2010.11929</t>
-        </is>
-      </c>
+      <c r="C73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1818,11 +1774,7 @@
           <t>2023 gigaGAN</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>arXiv:2211.01324</t>
-        </is>
-      </c>
+      <c r="C87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1903,11 +1855,7 @@
           <t>Learning Latent Subspaces in_Variational Autoencoder</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>arXiv:1511.06349</t>
-        </is>
-      </c>
+      <c r="C92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1920,11 +1868,7 @@
           <t>Lydia_Reverse_Variational_Autoencoder_for_Visual_Attribute_Manipulation_and_Anomaly_Detection_WACV_2020_paper</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>arXiv:1701.07875</t>
-        </is>
-      </c>
+      <c r="C93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2209,11 +2153,7 @@
           <t>improved_llava</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>arXiv:2204.14198</t>
-        </is>
-      </c>
+      <c r="C110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2617,11 +2557,7 @@
           <t>Efficient Self-supervised Learning with Contextualized Target Representations_for Vision, Speech and Language</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>arXiv:1907.11692</t>
-        </is>
-      </c>
+      <c r="C134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2770,11 +2706,7 @@
           <t>2023 Mamba</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>arXiv:1607.06450</t>
-        </is>
-      </c>
+      <c r="C143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5027,11 +4959,7 @@
           <t>language_models_are_unsupervised_multitask_learners</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>arXiv:1808.04444</t>
-        </is>
-      </c>
+      <c r="C276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -5431,11 +5359,7 @@
           <t>Efficient Classification of Long Documents Using Transformers</t>
         </is>
       </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>arXiv:1305.1319</t>
-        </is>
-      </c>
+      <c r="C300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -5563,11 +5487,7 @@
           <t>2023 Gemini</t>
         </is>
       </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>arXiv:2212.08073</t>
-        </is>
-      </c>
+      <c r="C308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -5580,11 +5500,7 @@
           <t>2023 LLAMA 2</t>
         </is>
       </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>arXiv:2112.00861</t>
-        </is>
-      </c>
+      <c r="C309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -5750,11 +5666,7 @@
           <t>2024 Gemini 1_5</t>
         </is>
       </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>arXiv:2303.09752</t>
-        </is>
-      </c>
+      <c r="C319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -5767,11 +5679,7 @@
           <t>2024 gemini_v1_5_report</t>
         </is>
       </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>arXiv:2303.09752</t>
-        </is>
-      </c>
+      <c r="C320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -5784,11 +5692,7 @@
           <t>2024 gemma-report</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>arXiv:2305.10403</t>
-        </is>
-      </c>
+      <c r="C321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -5852,11 +5756,7 @@
           <t>202407 LLAMA 3.1</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>arXiv:2303.09540</t>
-        </is>
-      </c>
+      <c r="C325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -5920,11 +5820,7 @@
           <t>gemma-2-report</t>
         </is>
       </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>arXiv:2303.08774</t>
-        </is>
-      </c>
+      <c r="C329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -5937,11 +5833,7 @@
           <t>GPT</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>arXiv:1607.06450</t>
-        </is>
-      </c>
+      <c r="C330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -5954,11 +5846,7 @@
           <t>GPT2</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>arXiv:1808.04444</t>
-        </is>
-      </c>
+      <c r="C331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -5988,11 +5876,7 @@
           <t>LLamA</t>
         </is>
       </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>arXiv:2204.06745</t>
-        </is>
-      </c>
+      <c r="C333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -6192,11 +6076,7 @@
           <t>2024 Yuan 2.0-M32</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>arXiv:2211.12588</t>
-        </is>
-      </c>
+      <c r="C345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -6277,11 +6157,7 @@
           <t>2020 BertimBau</t>
         </is>
       </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>arXiv:2001.08361</t>
-        </is>
-      </c>
+      <c r="C350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -6902,11 +6778,7 @@
           <t>Segment Anything</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr">
-        <is>
-          <t>arXiv:1607.06450</t>
-        </is>
-      </c>
+      <c r="C387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -7514,11 +7386,7 @@
           <t>2023 Effective Long-Context Scaling of Foundation Models(1)</t>
         </is>
       </c>
-      <c r="C423" t="inlineStr">
-        <is>
-          <t>arXiv:2307.11088</t>
-        </is>
-      </c>
+      <c r="C423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">

--- a/extracao.xlsx
+++ b/extracao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C439"/>
+  <dimension ref="A1:D439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,10 +441,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>pdf_hash</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>pdf_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>arxiv_line</t>
         </is>
@@ -458,10 +463,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>23516df3d08938175515f2f8dd39e70d</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Decision_Trees</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -471,10 +481,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>e6ec3703073445786a2a9114cb9697bf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>DeepLearning initialization review</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -484,10 +499,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>5eb8ae67fa7a0b61fbaadd29e6496a69</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>HyperNeat</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -497,10 +517,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>7c418a355f9c113ecac108756ab678e9</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>hyperneat_application</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -510,10 +535,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>f1068479172fe97b57492ffea6614838</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Image self supervision</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -523,10 +553,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>e41103fb918cc50809caf3b07a1b54d8</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Intoduction to Statistical Learning</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -536,10 +571,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>b5a56534f60aead9947e2d0e76fb180e</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>ISITC2016_paper_30</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -549,10 +589,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>893da83740adfdd778917ca70eefa932</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Neat Roving Eye</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -562,10 +607,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>8ceec5a34032fba65479f153bebb54e9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Neat x Hyperneat - strategic decisions</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -575,10 +625,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>9540f7d3e06a10a3674109af1f26d0ec</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Neat</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -588,10 +643,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>c6d9cae53b7a1805ca187051868d183e</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Neural machine translation by jointly learning to align and translate</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>arXiv:1409.0473v7  [cs.CL]  19 May 2016</t>
         </is>
@@ -605,10 +665,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>bdaeeef17369a51840ce2e11735eeeeb</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Novelty Search</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -618,10 +683,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>7860c58104c217c65dbd16cd10ba36fb</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Probability and Statistics notes</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -631,10 +701,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>5ca30fb5cda47ab228f01ae03b3ab15e</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>Reward-is-enough_2021_Artificial-Intelligence</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -644,10 +719,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>2ab84978b44c79a95eedd856e2e7b4d4</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>robust_regression</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -657,10 +737,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>94910f66fcd4abb788830f101c1467b4</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Robust_Regression_comparision</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -670,10 +755,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>371bf9ac6ab28f44e5ef19c0a85f7c23</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>RTNeat</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -683,10 +773,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>3985ddc739884ddfe9eac4a2d1230040</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>statquest_t_sne_and_umap_study_guide_v1</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -696,10 +791,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>9a606fa1025bd4f70571d306aee6f27d</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>SuttonBartoIPRLBook2ndEd</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -709,10 +809,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>acb654569c525aa0470e43d0a94d4cb7</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>what_matters_for_on_policy_dee</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -722,10 +827,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>d44cceb32f24c54e376f25f825952923</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>2011 The kaldi speech recognition_toolkit</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -735,10 +845,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>71ce7223579a9620980ae5b7ad241e5a</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>2023 Seamless</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -748,10 +863,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>cc3a2626d7542ca2a1f023d03a28ec7b</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>2023 SeamlessM4T</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>arXiv:2308.11596v3  [cs.CL]  25 Oct 2023</t>
         </is>
@@ -765,10 +885,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>426c8fa37bdede762605fe1f5bc2067a</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>2023 SpeechX</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>arXiv:2308.06873v1  [eess.AS]  14 Aug 2023</t>
         </is>
@@ -782,10 +907,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>009cf7879bfc11daa10ba8491a1bc2c2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>2023 Voicebox(1)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -795,10 +925,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>009cf7879bfc11daa10ba8491a1bc2c2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>2023 VoiceBox</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -808,10 +943,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>13e553325c73aeba3428412a4dddc5d7</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>2024 MASKED AUDIO GENERATION USING A SINGLE NON-_AUTOREGRESSIVE TRANSFORMER</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>arXiv:2401.04577v1  [cs.SD]  9 Jan 2024</t>
         </is>
@@ -825,10 +965,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>984dfe3a89ca0fc6f18aa77afa6db73c</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>2024 Parallel Fast Pitch</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>arXiv:2401.01755v1  [cs.SD]  3 Jan 2024</t>
         </is>
@@ -842,10 +987,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>950d5a65b23209afb3dd45a55010e2f8</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>2024 SpeechVerse</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>arXiv:2405.08295v1  [cs.CL]  14 May 2024</t>
         </is>
@@ -859,10 +1009,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>00a86aca630fb45c6ba33382d18e0407</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Attention-Based Models for Speech Recognition</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>arXiv:1506.07503v1  [cs.CL]  24 Jun 2015</t>
         </is>
@@ -876,10 +1031,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>3af324a51793443fa1e2eef1be3c1a4e</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Audio representations for deep learning in sound_synthesis_ A review</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>arXiv:2201.02490v1  [cs.SD]  7 Jan 2022</t>
         </is>
@@ -893,10 +1053,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>53a3d9d0e1956d988b93df711f4f74c7</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>AudioLM</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>arXiv:2209.03143v1  [cs.SD]  7 Sep 2022</t>
         </is>
@@ -910,10 +1075,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>04bdbefa5accf1f5eeae0ede360e7992</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>Automatic Speech Recognition_ A Deep Learning_Approach</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -923,10 +1093,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>d3c1b6386675bbaae3f365de006a3189</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>MelNet_ A Generative Model for Audio in the Frequency Domain</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>arXiv:1906.01083v1  [eess.AS]  4 Jun 2019</t>
         </is>
@@ -940,10 +1115,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>1998b36c548b04f46eda4fe0ad346890</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>MFA_paper_Interspeech2017</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -953,10 +1133,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>207bcc5086f0abca62388a44b0756d96</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>SoundStream</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>arXiv:2107.03312v1  [cs.SD]  7 Jul 2021</t>
         </is>
@@ -970,10 +1155,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>3b59bf90cb0f97312c4c5390368236cc</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>Theory and Applications of Digital Speech_Processing</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -983,10 +1173,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>4bd7a3f91cce7898e6bb745a78be73eb</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>VALL-E</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>arXiv:2301.02111v1  [cs.CL]  5 Jan 2023</t>
         </is>
@@ -1000,10 +1195,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>009cf7879bfc11daa10ba8491a1bc2c2</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>Voicebox</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1013,10 +1213,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>ea36e8bd44e0694e96d7a5c40dc410c7</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>WaveGlow</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>arXiv:1811.00002v1  [cs.SD]  31 Oct 2018</t>
         </is>
@@ -1030,10 +1235,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>ddc4830465e5f094ff16b950a2a84d07</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>whisper</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1043,10 +1253,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>ffac015256495849311a8bdbcb1b9262</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>XGBoost</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>arXiv:1603.02754v3  [cs.LG]  10 Jun 2016</t>
         </is>
@@ -1060,10 +1275,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>be55157aefc0c1b3f35e07baf2a7824d</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>FUZZY C MEANS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1073,10 +1293,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>14abdfaff6238b559358adc3bc064b3f</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>2024 Kolmogorov–Arnold Networks</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>arXiv:2404.19756v2  [cs.LG]  2 May 2024</t>
         </is>
@@ -1090,10 +1315,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>18f43809474d2aa5bee717ac9100ce00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>Gumbel Softmax</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>arXiv:1611.01144v5  [stat.ML]  5 Aug 2017</t>
         </is>
@@ -1107,10 +1337,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>b0fc0e61fd445fd97a00e4a08c1a8bb3</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>2022 Scalable Diffusion Models with Transformers</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>arXiv:2212.09748v2  [cs.CV]  2 Mar 2023</t>
         </is>
@@ -1124,10 +1359,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>016d159636fd7869fdcd7eecca816a4e</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>2023 DIFFUSION-GAN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>arXiv:2206.02262v4  [cs.LG]  25 Aug 2023</t>
         </is>
@@ -1141,10 +1381,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>bf2058566ea0533a59f55ed87cd7213a</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>2024 LiteVAE</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>arXiv:2405.14477v1  [cs.LG]  23 May 2024</t>
         </is>
@@ -1158,10 +1403,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>5b45fc1942019340c1d92247113a726b</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>2024 META Emu</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>arXiv:2309.15807v1  [cs.CV]  27 Sep 2023</t>
         </is>
@@ -1175,10 +1425,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>b9be5703b36f7dc5becbc3d923589897</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>2024 META Imagine Flash</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1188,10 +1443,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>ae0dabbd86413eca3591a248d9f1957e</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>2024 Multistep Consistency Models</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>arXiv:2403.06807v1  [cs.LG]  11 Mar 2024</t>
         </is>
@@ -1205,10 +1465,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>9767dff3875d5ef60d587f35f0cdf61b</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>2024 PIXART-δ</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>arXiv:2401.05252v1  [cs.CV]  10 Jan 2024</t>
         </is>
@@ -1222,10 +1487,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>3ee66ab5474f4ed0c24b3016ae72b465</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>2024 PixArt-Σ</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>arXiv:2403.04692v1  [cs.CV]  7 Mar 2024</t>
         </is>
@@ -1239,10 +1509,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>04b78963dca48736d0ba6ec71d2e06a7</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>2024 Scalable High-Resolution Pixel-Space Image Synthesis with_Hourglass Diffusion Transformers</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>arXiv:2401.11605v1  [cs.CV]  21 Jan 2024</t>
         </is>
@@ -1256,10 +1531,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>7adad04cef8b613b7e2b55bcfc59e913</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>2024 Self-Cascade Diffusion Model_for Higher-Resolution Adaptation</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>arXiv:2402.10491v1  [cs.CV]  16 Feb 2024</t>
         </is>
@@ -1273,10 +1553,15 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>3b51539893abcce83872b349cfd537f5</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>2024 Stable Diffusion 3</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>arXiv:2403.03206v1  [cs.CV]  5 Mar 2024</t>
         </is>
@@ -1290,10 +1575,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>d56b810dd2f1b253ea8f645a6bca13d5</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>2024 Zero-shot Identity-Preserving_Generation in Seconds</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>arXiv:2401.07519v1  [cs.CV]  15 Jan 2024</t>
         </is>
@@ -1307,10 +1597,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>506b8635d6d1de4f9eb79b7b2a582f3e</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>Cascaded diffusion models for high fidelity image generation</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>arXiv:2106.15282v3  [cs.CV]  17 Dec 2021</t>
         </is>
@@ -1324,10 +1619,15 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>6ff1d4c7572b4d958997c86973b692c0</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>Classifier-free diffusion guidance</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>arXiv:2207.12598v1  [cs.LG]  26 Jul 2022</t>
         </is>
@@ -1341,10 +1641,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>0c63d54af99f121bc2fd8f96fb590d4b</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>DALL-E</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>arXiv:2102.12092v2  [cs.CV]  26 Feb 2021</t>
         </is>
@@ -1358,10 +1663,15 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>eb09194bbc9656a0f8cddfeabc02d35b</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>DENOISING DIFFUSION IMPLICIT MODELS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>arXiv:2010.02502v4  [cs.LG]  5 Oct 2022</t>
         </is>
@@ -1375,10 +1685,15 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>a8c5d8c82b677e4324460abc053254b4</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>denoising diffusion probabilistic models</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>arXiv:2006.11239v2  [cs.LG]  16 Dec 2020</t>
         </is>
@@ -1392,10 +1707,15 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>fe96dd1d08efcaf94a680c1c7bfa9a58</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>diffusion models beat gans</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>arXiv:2105.05233v4  [cs.LG]  1 Jun 2021</t>
         </is>
@@ -1409,10 +1729,15 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>ad0e70d557d6d7a0d5af6172d5d73eb1</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>GLIDE</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>arXiv:2112.10741v3  [cs.CV]  8 Mar 2022</t>
         </is>
@@ -1426,10 +1751,15 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>fec4d50a1d35b9d73f5a502124bfd5ea</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>Imagen</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>arXiv:2205.11487v1  [cs.CV]  23 May 2022</t>
         </is>
@@ -1443,10 +1773,15 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>09c22a471db5c53a7c88a4a90772285a</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>ImagenVideo</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1456,10 +1791,15 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>c879a5707ff1836c2c6e006beced87f2</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>Imagic</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>arXiv:2210.09276v3  [cs.CV]  20 Mar 2023</t>
         </is>
@@ -1473,10 +1813,15 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>9badaa74e386d9400a7223c7d8567af2</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>Improved Denoising Diffusion Probabilistic Models</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>arXiv:2102.09672v1  [cs.LG]  18 Feb 2021</t>
         </is>
@@ -1490,10 +1835,15 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>e6682620082cce421b356006b57d2519</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>PixelCNN++</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>arXiv:1701.05517v1  [cs.LG]  19 Jan 2017</t>
         </is>
@@ -1507,10 +1857,15 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>67b289e195dbd34d22e3cd8d3c55b24a</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>RePaint</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1520,10 +1875,15 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>d5a20534c1074417eaa1543a11c57063</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>RePaint_ Inpainting using Denoising Diffusion Probabilistic Models</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>arXiv:2201.09865v4  [cs.CV]  31 Aug 2022</t>
         </is>
@@ -1537,10 +1897,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>7b3c1155326a8c53fb4465d0ffb12a83</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>Resolution-robust large mask inpainting with_fourier convolutions</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1550,10 +1915,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>6c9d0e00865e16831e3557ca07038d44</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>SDEdit</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>arXiv:2108.01073v2  [cs.CV]  5 Jan 2022</t>
         </is>
@@ -1567,10 +1937,15 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>48fa4d32e947e182cb28ce48021e56bd</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>SRDiff</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>arXiv:2104.14951v2  [cs.CV]  18 May 2021</t>
         </is>
@@ -1584,10 +1959,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>8eb1b42dbf6d359abdd4d99278f04c45</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>StableDiffusion</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>arXiv:2112.10752v2  [cs.CV]  13 Apr 2022</t>
         </is>
@@ -1601,10 +1981,15 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>361f4e4173be15ff63983f24c175c5ea</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>VQGAN</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>arXiv:2012.09841v3  [cs.CV]  23 Jun 2021</t>
         </is>
@@ -1618,10 +2003,15 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>c665ea9f8a963ab679464f249633b712</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>202403 GaLore</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>arXiv:2403.03507v2  [cs.LG]  2 Jun 2024</t>
         </is>
@@ -1635,10 +2025,15 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>889b00226c9667f7180df1cbcd3de5eb</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>202407 Q-GaLore</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>arXiv:2407.08296v1  [cs.LG]  11 Jul 2024</t>
         </is>
@@ -1652,10 +2047,15 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>5eeebe4aade83fd2be3f4e3d79bf9039</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>Projected GAN</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>arXiv:2111.01007v1  [cs.CV]  1 Nov 2021</t>
         </is>
@@ -1669,10 +2069,15 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>d625930f4db37e84a831db99f4064f3f</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>State-of-the-Art in the Architecture, Methods and Applications of_StyleGAN</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>arXiv:2202.14020v1  [cs.CV]  28 Feb 2022</t>
         </is>
@@ -1686,10 +2091,15 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>ce4613bd5a45675c7af61d56ea99617f</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>StyleGAN T</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>arXiv:2301.09515v1  [cs.LG]  23 Jan 2023</t>
         </is>
@@ -1703,10 +2113,15 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>b6e9e3584ef0bc24db7b2c7599192f4a</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>styleGAN</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>arXiv:1812.04948v3  [cs.NE]  29 Mar 2019</t>
         </is>
@@ -1720,10 +2135,15 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>c5bcd0a7a6787eba94ab33f7777a9875</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>StyleGAN_2</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>arXiv:1912.04958v2  [cs.CV]  23 Mar 2020</t>
         </is>
@@ -1737,10 +2157,15 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>e898840f4bd1c29b9fce6955c8232517</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>StyleGAN_2_ADA</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>arXiv:2006.06676v2  [cs.CV]  7 Oct 2020</t>
         </is>
@@ -1754,10 +2179,15 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>4e3f614c478157167c135075c22d0571</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>2020 DeepFaceSwap</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>arXiv:2005.05535v5  [cs.CV]  29 Jun 2021</t>
         </is>
@@ -1771,10 +2201,15 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>eea887d5d23caeaa0136e079cadc6524</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>2023 gigaGAN</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1784,10 +2219,15 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>ecc3390ff179d87926f9cb4e80981238</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>Consistency models</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>arXiv:2303.01469v1  [cs.LG]  2 Mar 2023</t>
         </is>
@@ -1801,10 +2241,15 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>72b5202d555dba15ae394cee85afbd4c</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>Fader Networks_Manipulating Images by Sliding Attributes</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>arXiv:1706.00409v2  [cs.CV]  28 Jan 2018</t>
         </is>
@@ -1818,10 +2263,15 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>178558cf95342ec023fb86f6d232b4f9</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>Generating Diverse High-Fidelity Images_with VQ-VAE-2</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>arXiv:1906.00446v1  [cs.LG]  2 Jun 2019</t>
         </is>
@@ -1835,10 +2285,15 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>6b18d77fe77124c47d7124efc5b5486f</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>Latent Space Factorisation and Manipulation via Matrix Subspace Projection</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>arXiv:1907.12385v3  [cs.LG]  14 Aug 2020</t>
         </is>
@@ -1852,10 +2307,15 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>21b76461a6b4b940307f01f612b1daac</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>Learning Latent Subspaces in_Variational Autoencoder</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1865,10 +2325,15 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>2f5c225b9177727d0e22ebca1b5bc2c6</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>Lydia_Reverse_Variational_Autoencoder_for_Visual_Attribute_Manipulation_and_Anomaly_Detection_WACV_2020_paper</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1878,10 +2343,15 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>cd6f1c2937e1990837014350c2265f73</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>PARTI</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>arXiv:2206.10789v1  [cs.CV]  22 Jun 2022</t>
         </is>
@@ -1895,10 +2365,15 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>6dd25179ddfd512ce6cfd9f2242c4d58</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>Towards Robust Blind Face Restoration with_Codebook Lookup Transformer</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>arXiv:2206.11253v2  [cs.CV]  1 Nov 2022</t>
         </is>
@@ -1912,10 +2387,15 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>76aedc789713d175694f0639cdd682a4</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>2022 µP</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>arXiv:2203.03466v2  [cs.LG]  28 Mar 2022</t>
         </is>
@@ -1929,10 +2409,15 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>318b48e7b958fdcba45490213c93f1cc</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>2024 VISION TRANSFORMERS NEED REGISTERS</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>arXiv:2309.16588v2  [cs.CV]  12 Apr 2024</t>
         </is>
@@ -1946,10 +2431,15 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>7f1ba6e93e08ec7fc3f4fa1c8a255ac0</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>Vision Transformer</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>arXiv:2010.11929v2  [cs.CV]  3 Jun 2021</t>
         </is>
@@ -1963,10 +2453,15 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>e1b64fe4a753fcd604eadf4626960058</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>2023 A Survey on Multimodal Large Language Models</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>arXiv:2306.13549v1  [cs.CV]  23 Jun 2023</t>
         </is>
@@ -1980,10 +2475,15 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>4e4c6752c99973a3602a07b55a013d4b</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>2023 Cheap and Quick Efficient Vision-Language_Instruction Tuning for Large Language Models</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>arXiv:2305.15023v3  [cs.CV]  24 Oct 2023</t>
         </is>
@@ -1997,10 +2497,15 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>6270ccbade3cdb879dc53992f72dce98</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>2023 How to Bridge the Gap between Modalities_ A_Comprehensive Survey on Multi-modal Large_Language Model</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>arXiv:2311.07594v2  [cs.CL]  19 Dec 2023</t>
         </is>
@@ -2014,10 +2519,15 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
+          <t>6b05681970db76170c17a343e1f299c0</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>2023 LLAVA</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>arXiv:2304.08485v1  [cs.CV]  17 Apr 2023</t>
         </is>
@@ -2031,10 +2541,15 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>224022969e180d0b44bbce4102dc7873</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
           <t>2023 NExT-GPT_ Any-to-Any Multimodal LLM</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>arXiv:2309.05519v2  [cs.AI]  13 Sep 2023</t>
         </is>
@@ -2048,10 +2563,15 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
+          <t>8bf63cf0f7615c8148757742698e2f9d</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
           <t>2023 Versatile Vision Encoders for Multimodal Large Language Models</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>arXiv:2312.14233v1  [cs.CV]  21 Dec 2023</t>
         </is>
@@ -2065,10 +2585,15 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
+          <t>6d918dc2a5c9d288a8237b0ba3951399</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
           <t>2024 An Automated Pipeline for Generating Synthetic_Multi-modal Datasets</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>arXiv:2403.03194v1  [cs.CL]  5 Mar 2024</t>
         </is>
@@ -2082,10 +2607,15 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
+          <t>1d13454e517d42b2a4237e34d18f20ec</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
           <t>2024 Byte Models are Digital World Simulators</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>arXiv:2402.19155v1  [cs.LG]  29 Feb 2024</t>
         </is>
@@ -2099,10 +2629,15 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
+          <t>e8042e5975f45bfbfe1ce5a6943e1fa7</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
           <t>2024 Recent Advances in MultiModal Large Language Models</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>arXiv:2401.13601v1  [cs.CL]  24 Jan 2024</t>
         </is>
@@ -2116,10 +2651,15 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
+          <t>dfb05c0affcb4d76900247178673abd6</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
           <t>20240518 Uni-MoE</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>arXiv:2405.11273v1  [cs.AI]  18 May 2024</t>
         </is>
@@ -2133,10 +2673,15 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
+          <t>d8202ad589d370b578bc526e3dceda01</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
           <t>202408 LAW OF VISION REPRESENTATION IN MLLMS</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>arXiv:2408.16357v1  [cs.CV]  29 Aug 2024</t>
         </is>
@@ -2150,10 +2695,15 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
+          <t>72ce2303f42678d1ae3ec5488e113b4f</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
           <t>improved_llava</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2163,10 +2713,15 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
+          <t>224346b454f7a81a689aa7865739693c</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
           <t>2017 Efficient Natural Language Response Suggestion_for Smart Reply</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>arXiv:1705.00652v1  [cs.CL]  1 May 2017</t>
         </is>
@@ -2180,10 +2735,15 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
+          <t>e418597f5a9e14f474e7713b882d32a8</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
           <t>2019 A CONDITIONAL TRANSFORMER LANGUAGE_MODEL FOR CONTROLLABLE GENERATION</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>arXiv:1909.05858v2  [cs.CL]  20 Sep 2019</t>
         </is>
@@ -2197,10 +2757,15 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>775c2b17bc12c0e766f0ce5f47048dde</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
           <t>2020 The curious case of neural_text degeneration</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>arXiv:1904.09751v2  [cs.CL]  14 Feb 2020</t>
         </is>
@@ -2214,10 +2779,15 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>ca43fb1031f626275af4ecf96c44a97e</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
           <t>2021 Prefix Tunning</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>arXiv:2101.00190v1  [cs.CL]  1 Jan 2021</t>
         </is>
@@ -2231,10 +2801,15 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>47fcf699cef205c754a289161c3b6c37</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
           <t>2022 A contrastive frame-_work for neural text generation</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>arXiv:2202.06417v3  [cs.CL]  26 Sep 2022</t>
         </is>
@@ -2248,10 +2823,15 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
+          <t>dad642150b4427e6483fa675c904ecfa</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
           <t>2022 Foundation Transformer</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>arXiv:2210.06423v2  [cs.LG]  19 Oct 2022</t>
         </is>
@@ -2265,10 +2845,15 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>8dc902f2bdde973727e103ba90d98ac3</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
           <t>2023 Contrastive Search Is What You Need For_Neural Text Generation</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>arXiv:2210.14140v3  [cs.CL]  14 Feb 2023</t>
         </is>
@@ -2282,10 +2867,15 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
+          <t>cf1586307fb7a43e4b84d481f984266a</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
           <t>2024 Evolutionary Optimization of Model Merging Recipes</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>arXiv:2403.13187v1  [cs.NE]  19 Mar 2024</t>
         </is>
@@ -2299,10 +2889,15 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
+          <t>68787cc6d61f6a5475534820144c6a13</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
           <t>Attention_is_all_you_need</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>arXiv:1706.03762v5  [cs.CL]  6 Dec 2017</t>
         </is>
@@ -2316,10 +2911,15 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
+          <t>cf40432d6a1362d5bfc0a96c6d0b7ac6</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
           <t>How to fine tune BERT for text classification</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>arXiv:1905.05583v3  [cs.CL]  5 Feb 2020</t>
         </is>
@@ -2333,10 +2933,15 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
+          <t>37ebb13eae0d55a4c387e6abb3b2089a</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
           <t>2024 OneBit</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>arXiv:2402.11295v1  [cs.CL]  17 Feb 2024</t>
         </is>
@@ -2350,10 +2955,15 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
+          <t>65fc08a5f98bd21e621e8a7d622c7a52</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
           <t>2024 Grandmaster-Level Chess Without Search</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>arXiv:2402.04494v1  [cs.LG]  7 Feb 2024</t>
         </is>
@@ -2367,10 +2977,15 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
+          <t>f95b2afb5b21c921ca788304fdae56d9</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
           <t>2024 Learning H-Infinity Locomotion Control</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>arXiv:2404.14405v1  [cs.RO]  22 Apr 2024</t>
         </is>
@@ -2384,10 +2999,15 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
+          <t>80452b5af6eed5790ad6d1777a22a856</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
           <t>2024 Training Value Functions via_Classification for Scalable Deep RL</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>arXiv:2403.03950v1  [cs.LG]  6 Mar 2024</t>
         </is>
@@ -2401,10 +3021,15 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
+          <t>7c5713b276dc685f3ac36b28cf227323</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
           <t>Double Q Learning</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>arXiv:1509.06461v3  [cs.LG]  8 Dec 2015</t>
         </is>
@@ -2418,10 +3043,15 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
+          <t>8f6420c5a77eb5d73377a52da681545b</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
           <t>Dream v2</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>arXiv:2010.02193v4  [cs.LG]  12 Feb 2022</t>
         </is>
@@ -2435,10 +3065,15 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
+          <t>fd5a382f8651ca32b8f9990f027a49c1</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
           <t>Dreams v1</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>arXiv:1912.01603v3  [cs.LG]  17 Mar 2020</t>
         </is>
@@ -2452,10 +3087,15 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
+          <t>2f338f6670edcc4e71be14a010fa1ecd</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
           <t>PPG</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>arXiv:2009.04416v1  [cs.LG]  9 Sep 2020</t>
         </is>
@@ -2469,10 +3109,15 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
+          <t>42f8fa20adc03aec53ab6909a67f82f2</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
           <t>2023 A Cookbook of Self-Supervised Learning</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>arXiv:2304.12210v1  [cs.LG]  24 Apr 2023</t>
         </is>
@@ -2486,10 +3131,15 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
+          <t>c4df21303a4504abf59afeecf5893d80</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
           <t>A Simple Framework for Contrastive Learning of Visual Representations</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>arXiv:2002.05709v3  [cs.LG]  1 Jul 2020</t>
         </is>
@@ -2503,10 +3153,15 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
+          <t>23b88333a8d76a2397ed2b6de056778e</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
           <t>Barlow Twins_ Self-Supervised Learning via Redundancy Reduction</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>arXiv:2103.03230v3  [cs.CV]  14 Jun 2021</t>
         </is>
@@ -2520,10 +3175,15 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
+          <t>345ce318a237747d2531d3b2b728e2b7</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
           <t>Bootstrap Your Own Latent_A New Approach to Self-Supervised Learning</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>arXiv:2006.07733v3  [cs.LG]  10 Sep 2020</t>
         </is>
@@ -2537,10 +3197,15 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
+          <t>517b4c6104659226dbc4057e2ad9459d</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
           <t>Deep Clustering for Unsupervised Learning_of Visual Features</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>arXiv:1807.05520v2  [cs.CV]  18 Mar 2019</t>
         </is>
@@ -2554,10 +3219,15 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
+          <t>06a95611f5bb4301c1312ae94c1dd341</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
           <t>Efficient Self-supervised Learning with Contextualized Target Representations_for Vision, Speech and Language</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2567,10 +3237,15 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
+          <t>26a16c2a2dde68c7c16eb461ab9e138d</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
           <t>LARS</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>arXiv:1708.03888v3  [cs.CV]  13 Sep 2017</t>
         </is>
@@ -2584,10 +3259,15 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
+          <t>bcad1cb2c960589072cc876881394cd7</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
           <t>Masked Autoencoders Are Scalable Vision Learners</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>arXiv:2111.06377v3  [cs.CV]  19 Dec 2021</t>
         </is>
@@ -2601,10 +3281,15 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
+          <t>71187b008a9e795affbcfa81bef1b7a6</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
           <t>Unsupervised Learning of Visual Features_by Contrasting Cluster Assignments</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>arXiv:2006.09882v5  [cs.CV]  8 Jan 2021</t>
         </is>
@@ -2618,10 +3303,15 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
+          <t>a11ddb67e7db4144fec544f8a6a6726a</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
           <t>VicReg</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>arXiv:2105.04906v3  [cs.CV]  28 Jan 2022</t>
         </is>
@@ -2635,10 +3325,15 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
+          <t>1c581dc00532070c9e1e93c703876641</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
           <t>2022 Efficient Long Sequence Modeling via State Space Augmented_Transformer</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>arXiv:2212.08136v1  [cs.CL]  15 Dec 2022</t>
         </is>
@@ -2652,10 +3347,15 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
+          <t>6f27c4ad76ff2c52570056155b6a94aa</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
           <t>2022 S4</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>arXiv:2111.00396v3  [cs.LG]  5 Aug 2022</t>
         </is>
@@ -2669,10 +3369,15 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
+          <t>0575b4fda2e4348beea1ba0c11913553</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
           <t>2023 Hungry Hungry Hippos</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>arXiv:2212.14052v3  [cs.LG]  29 Apr 2023</t>
         </is>
@@ -2686,10 +3391,15 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
+          <t>129519e71abdcf3c22f98e3fc2dcd00f</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
           <t>2023 Hyena Hierarchy</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>arXiv:2302.10866v3  [cs.LG]  19 Apr 2023</t>
         </is>
@@ -2703,10 +3413,15 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
+          <t>ae97f1490ea8f1bac17104748e0b2515</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
           <t>2023 Mamba</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2716,10 +3431,15 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
+          <t>084fc32e582b01ef33707929c92eb9f6</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
           <t>2023 Retention Network</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>arXiv:2307.08621v2  [cs.CL]  19 Jul 2023</t>
         </is>
@@ -2733,10 +3453,15 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
+          <t>ca4a1fb2950bf485ac0e1288c5e7d0da</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
           <t>2024 BlackMamba</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>arXiv:2402.01771v1  [cs.CL]  1 Feb 2024</t>
         </is>
@@ -2750,10 +3475,15 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
+          <t>0c687e506335eccccede9684454068c4</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
           <t>2024 JAMBA</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>arXiv:2403.19887v2  [cs.CL]  3 Jul 2024</t>
         </is>
@@ -2767,10 +3497,15 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
+          <t>dee2e49e5e49a270c19184cfd5b1a2cd</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
           <t>2024 Moe Mamba</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>arXiv:2401.04081v1  [cs.LG]  8 Jan 2024</t>
         </is>
@@ -2784,10 +3519,15 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
+          <t>0e8d3560edaf9ff50c856c969563ff0d</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
           <t>202406 SAMBA</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>arXiv:2406.07522v1  [cs.CL]  11 Jun 2024</t>
         </is>
@@ -2801,10 +3541,15 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
+          <t>cab281ea5bc6147ec72ec0d34b59a4cf</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
           <t>2020 wav2vec 2.0</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>arXiv:2006.11477v3  [cs.CL]  22 Oct 2020</t>
         </is>
@@ -2818,10 +3563,15 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
+          <t>603778648ab4f229935bd6d5addb5c99</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
           <t>2021 Conformer</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>arXiv:2005.08100v1  [eess.AS]  16 May 2020</t>
         </is>
@@ -2835,10 +3585,15 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
+          <t>4c4b08d574aaf2a19ea1e82c0290cc10</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
           <t>2021 HuBert</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>arXiv:2106.07447v1  [cs.CL]  14 Jun 2021</t>
         </is>
@@ -2852,10 +3607,15 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
+          <t>609d38343894831689b72997b0c99888</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
           <t>2021 W2V-BERT</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>arXiv:2108.06209v2  [cs.LG]  13 Sep 2021</t>
         </is>
@@ -2869,10 +3629,15 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
+          <t>5748952fe3cfeea83247c7f3004f8963</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
           <t>2022 EnCodec - High Fidelity Neural Audio Compression</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>arXiv:2210.13438v1  [eess.AS]  24 Oct 2022</t>
         </is>
@@ -2886,10 +3651,15 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
+          <t>b301a662fbc4950268cb1c2996c868c4</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
           <t>2024 ZipFormer</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>arXiv:2310.11230v2  [eess.AS]  6 Dec 2023</t>
         </is>
@@ -2903,10 +3673,15 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
+          <t>99a09bdb5ece8b924837f5bca93a07f2</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
           <t>WaveNet</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>arXiv:1609.03499v2  [cs.SD]  19 Sep 2016</t>
         </is>
@@ -2920,10 +3695,15 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
+          <t>e9006b0f18d33547f96338eb556ea135</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
           <t>202408 WAVTOKENIZER</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>arXiv:2408.16532v1  [eess.AS]  29 Aug 2024</t>
         </is>
@@ -2937,10 +3717,15 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
+          <t>4896944f9d39bcf65b47d0666782dc1f</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
           <t>Towards Achieving Human Parity on End-to-end_Simultaneous Speech Translation</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>arXiv:2407.21646v1  [cs.CL]  31 Jul 2024</t>
         </is>
@@ -2954,10 +3739,15 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
+          <t>cdab5a4f9a4f9ecf4fe6f6cec6dffa4d</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
           <t>2019 Translatotoron 1</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>arXiv:1904.06037v2  [cs.CL]  25 Jun 2019</t>
         </is>
@@ -2971,10 +3761,15 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
+          <t>7ebc0098195b4fde995009b7107fd16e</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
           <t>Translatotron 2</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>arXiv:2107.08661v5  [cs.CL]  17 May 2022</t>
         </is>
@@ -2988,10 +3783,15 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
+          <t>63de21f3a93e41915f45608bc3496ba5</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
           <t>Translatotron 3</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t>arXiv:2305.17547v3  [cs.CL]  16 Jan 2024</t>
         </is>
@@ -3005,10 +3805,15 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
+          <t>b5f5b89b5ece23c13f5b7fc576dc70ce</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
           <t>2017 Tacotron</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="D161" t="inlineStr">
         <is>
           <t>arXiv:1703.10135v2  [cs.CL]  6 Apr 2017</t>
         </is>
@@ -3022,10 +3827,15 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
+          <t>23ff85a8fb661e066af978ca87a9c379</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
           <t>2018 Tacotron 2</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>arXiv:1712.05884v2  [cs.CL]  16 Feb 2018</t>
         </is>
@@ -3039,10 +3849,15 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
+          <t>fd017c72f9a428b412e760aae12b3389</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
           <t>2019 FastSpeech</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>arXiv:1905.09263v5  [cs.CL]  20 Nov 2019</t>
         </is>
@@ -3056,10 +3871,15 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
+          <t>4e994b23a457c30e6f986fd1dbcb7597</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
           <t>2019 GAN-TTS</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="D164" t="inlineStr">
         <is>
           <t>arXiv:1909.11646v2  [cs.SD]  26 Sep 2019</t>
         </is>
@@ -3073,10 +3893,15 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
+          <t>59f03557650984e013fa85e5a09e4f9f</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
           <t>2019 Neural Speech Synthesis with Transformer Network(1)</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>arXiv:1809.08895v3  [cs.CL]  30 Jan 2019</t>
         </is>
@@ -3090,10 +3915,15 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
+          <t>59f03557650984e013fa85e5a09e4f9f</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
           <t>2019 Neural Speech Synthesis with Transformer Network</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>arXiv:1809.08895v3  [cs.CL]  30 Jan 2019</t>
         </is>
@@ -3107,10 +3937,15 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
+          <t>90a22914e58f47140e072a4ebae20fea</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
           <t>2020 Hifi GAN</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="D167" t="inlineStr">
         <is>
           <t>arXiv:2010.05646v2  [cs.SD]  23 Oct 2020</t>
         </is>
@@ -3124,10 +3959,15 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
+          <t>02042cfe43fcd67da86887d3d9da1591</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
           <t>2021 END-TO-END ADVERSARIAL TEXT-TO-SPEECH</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>arXiv:2006.03575v3  [cs.SD]  17 Mar 2021</t>
         </is>
@@ -3141,10 +3981,15 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
+          <t>75f6d89ea1f4143231ddc759ec1eaa82</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
           <t>2021 FastSpeech 2</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t>arXiv:2006.04558v8  [eess.AS]  8 Aug 2022</t>
         </is>
@@ -3158,10 +4003,15 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
+          <t>fdd635f733e35e4fdc03441c42944cad</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
           <t>2023 E3 TTS</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="D170" t="inlineStr">
         <is>
           <t>arXiv:2311.00945v1  [cs.SD]  2 Nov 2023</t>
         </is>
@@ -3175,10 +4025,15 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
+          <t>cdb9f084a415bce1a5c7ebd724af4dd1</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
           <t>202305 NaturalSpeech 2</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="D171" t="inlineStr">
         <is>
           <t>arXiv:2304.09116v3  [eess.AS]  30 May 2023</t>
         </is>
@@ -3192,10 +4047,15 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
+          <t>f540c9ae87d3cbcdbd629a40df4d0f85</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
           <t>2024 FlashSpeech</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="D172" t="inlineStr">
         <is>
           <t>arXiv:2404.14700v3  [eess.AS]  25 Apr 2024</t>
         </is>
@@ -3209,10 +4069,15 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
+          <t>93d3313bf0dafbd14d0756758bcf5bf2</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
           <t>2024 NaturalSpeech 3</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>arXiv:2403.03100v3  [eess.AS]  23 Apr 2024</t>
         </is>
@@ -3226,10 +4091,15 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
+          <t>35bfdd18107ffad0757c0ceb3b346d88</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
           <t xml:space="preserve">EFFICIENTLY TRAINABLE TEXT-TO-SPEECH SYSTEM BASED ON_DEEP CONVOLUTIONAL NETWORKS </t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>arXiv:1710.08969v2  [cs.SD]  30 Sep 2020</t>
         </is>
@@ -3243,10 +4113,15 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
+          <t>c5a6bf52e86fdfcf3dd47ae149fdba9c</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
           <t>2024 EVA-GAN</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="D175" t="inlineStr">
         <is>
           <t>arXiv:2402.00892v1  [cs.SD]  31 Jan 2024</t>
         </is>
@@ -3260,10 +4135,15 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
+          <t>42e6ed2c89d3da4a86b13921c3129a56</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
           <t>202409 Theory, Analysis, and Best Practices for_Sigmoid Self-Attention</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="D176" t="inlineStr">
         <is>
           <t>arXiv:2409.04431v1  [cs.LG]  6 Sep 2024</t>
         </is>
@@ -3277,10 +4157,15 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
+          <t>5960b344851c685e12a021bbb31fec97</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
           <t>2017 Adam</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="D177" t="inlineStr">
         <is>
           <t>arXiv:1412.6980v9  [cs.LG]  30 Jan 2017</t>
         </is>
@@ -3294,10 +4179,15 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
+          <t>109df26a0996c1903275f04aa80a0aac</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
           <t>2019 AdamW</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="D178" t="inlineStr">
         <is>
           <t>arXiv:1711.05101v3  [cs.LG]  4 Jan 2019</t>
         </is>
@@ -3311,10 +4201,15 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
+          <t>5dc4de54f4ba14dc93f23534f2f7f444</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
           <t>2023 Lion Optimizer</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="D179" t="inlineStr">
         <is>
           <t>arXiv:2302.06675v3  [cs.LG]  26 Apr 2023</t>
         </is>
@@ -3328,10 +4223,15 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
+          <t>ab2c32aa55cbdbea5ad915c7262a5f9a</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
           <t>202409 THE ADEMAMIX OPTIMIZER</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="D180" t="inlineStr">
         <is>
           <t>arXiv:2409.03137v1  [cs.LG]  5 Sep 2024</t>
         </is>
@@ -3345,10 +4245,15 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
+          <t>847e2108e3bf8fe55eb9660025da639c</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
           <t>202409 OmniGen</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="D181" t="inlineStr">
         <is>
           <t>arXiv:2409.11340v1  [cs.CV]  17 Sep 2024</t>
         </is>
@@ -3362,10 +4267,15 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
+          <t>b9ee89d7861f8f3b92bb8bd17d209aff</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
           <t>DALL-E 2</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="D182" t="inlineStr">
         <is>
           <t>arXiv:2204.06125v1  [cs.CV]  13 Apr 2022</t>
         </is>
@@ -3379,10 +4289,15 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
+          <t>8344d5977ae4e957b21c92cab830fe73</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
           <t>Super Resolution via iterative refinement</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="D183" t="inlineStr">
         <is>
           <t>arXiv:2104.07636v2  [eess.IV]  30 Jun 2021</t>
         </is>
@@ -3396,10 +4311,15 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
+          <t>30e70090ebed5f42f80535048bb16c2f</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
           <t>alias-free GAN (stylegan3)</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="D184" t="inlineStr">
         <is>
           <t>arXiv:2106.12423v4  [cs.CV]  18 Oct 2021</t>
         </is>
@@ -3413,10 +4333,15 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
+          <t>624a6eed6580844058c126dc9b4ac87c</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
           <t>PROGAN</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>arXiv:1710.10196v3  [cs.NE]  26 Feb 2018</t>
         </is>
@@ -3430,10 +4355,15 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
+          <t>2e0063859644394f3118c40f48e0cf57</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
           <t>20240610 Autoregressive Model Beats Diffusion</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="D186" t="inlineStr">
         <is>
           <t>arXiv:2406.06525v1  [cs.CV]  10 Jun 2024</t>
         </is>
@@ -3447,10 +4377,15 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
+          <t>0ac99a3189fd20d3a421c8ce0f970104</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
           <t>2023 Make-A-Scene</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>arXiv:2203.13131v1  [cs.CV]  24 Mar 2022</t>
         </is>
@@ -3464,10 +4399,15 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
+          <t>4aa66882fe98b39e3dd82abf5e0ba31f</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
           <t>Autoregressive Image Generation using Residual Quantization</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="D188" t="inlineStr">
         <is>
           <t>arXiv:2203.01941v2  [cs.CV]  9 Mar 2022</t>
         </is>
@@ -3481,10 +4421,15 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
+          <t>2f186f2b85baf57cce5cebc4ed6a8133</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
           <t>DFVQGAN</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="D189" t="inlineStr">
         <is>
           <t>arXiv:2202.05009v1  [cs.CV]  10 Feb 2022</t>
         </is>
@@ -3498,10 +4443,15 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
+          <t>257cc51e52b7354ffc76586ce59b295d</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
           <t>ViT VQGAN</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="D190" t="inlineStr">
         <is>
           <t>arXiv:2110.04627v3  [cs.CV]  5 Jun 2022</t>
         </is>
@@ -3515,10 +4465,15 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
+          <t>361f4e4173be15ff63983f24c175c5ea</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
           <t>VQGAN</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="D191" t="inlineStr">
         <is>
           <t>arXiv:2012.09841v3  [cs.CV]  23 Jun 2021</t>
         </is>
@@ -3532,10 +4487,15 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
+          <t>d268870c8814367f11c1e2fcbc6c8e41</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
           <t>VQVAE</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
+      <c r="D192" t="inlineStr">
         <is>
           <t>arXiv:1711.00937v2  [cs.LG]  30 May 2018</t>
         </is>
@@ -3549,10 +4509,15 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
+          <t>6e0c46bffbc7ce5b030ee9cf5524b13e</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
           <t>Isolating Sources of Disentanglement in VAEs</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="D193" t="inlineStr">
         <is>
           <t>arXiv:1802.04942v5  [cs.LG]  23 Apr 2019</t>
         </is>
@@ -3566,10 +4531,15 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
+          <t>8a28f319b812178591ef5e7c476c27db</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
           <t>ResNet</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>arXiv:1512.03385v1  [cs.CV]  10 Dec 2015</t>
         </is>
@@ -3583,10 +4553,15 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
+          <t>882642c9a08d81da4ec24f61030cb339</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
           <t>The Unreasonable Effectiveness of Deep Features as a Perceptual Metric</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="D195" t="inlineStr">
         <is>
           <t>arXiv:1801.03924v2  [cs.CV]  10 Apr 2018</t>
         </is>
@@ -3600,10 +4575,15 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
+          <t>1fc956711b1d99f17c09102e6f73ff2e</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
           <t>CLIP</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="D196" t="inlineStr">
         <is>
           <t>arXiv:2103.00020v1  [cs.CV]  26 Feb 2021</t>
         </is>
@@ -3617,10 +4597,15 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
+          <t>dfe13ccab7bcdffcbbb49e193e2843d9</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
           <t>2023 PALI-3 VISION LANGUAGE MODELS</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="D197" t="inlineStr">
         <is>
           <t>arXiv:2310.09199v2  [cs.CV]  17 Oct 2023</t>
         </is>
@@ -3634,10 +4619,15 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
+          <t>dfe13ccab7bcdffcbbb49e193e2843d9</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
           <t>2023 PALI-3</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="D198" t="inlineStr">
         <is>
           <t>arXiv:2310.09199v2  [cs.CV]  17 Oct 2023</t>
         </is>
@@ -3651,10 +4641,15 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
+          <t>535949f32596af5b3eecd44114dcd9cd</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
           <t>2023 Sigmoid Loss for Language Image Pre-Training</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -3664,10 +4659,15 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
+          <t>df9fc474269fa1c296e4ba749087aa5a</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
           <t>2024 An Introduction to Vision-Language Modeling</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="D200" t="inlineStr">
         <is>
           <t>arXiv:2405.17247v1  [cs.LG]  27 May 2024</t>
         </is>
@@ -3681,10 +4681,15 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
+          <t>9d1e4c887b30f39468962163104f9cf0</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
           <t>2024 Chameleon</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="D201" t="inlineStr">
         <is>
           <t>arXiv:2405.09818v1  [cs.CL]  16 May 2024</t>
         </is>
@@ -3698,10 +4703,15 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
+          <t>231206adc8a2d3766bf4cd53868cf840</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
           <t>202406 Florence-2</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="D202" t="inlineStr">
         <is>
           <t>arXiv:2311.06242v1  [cs.CV]  10 Nov 2023</t>
         </is>
@@ -3715,10 +4725,15 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
+          <t>7fb2c7e66b7b7785d3971b44469f04f9</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
           <t>2023 ReAct</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="D203" t="inlineStr">
         <is>
           <t>arXiv:2210.03629v3  [cs.CL]  10 Mar 2023</t>
         </is>
@@ -3732,10 +4747,15 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
+          <t>2414d122309645fc049972c5fad5c92a</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
           <t>2024 AutoWebGLM</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="D204" t="inlineStr">
         <is>
           <t>arXiv:2404.03648v1  [cs.CL]  4 Apr 2024</t>
         </is>
@@ -3749,10 +4769,15 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
+          <t>743fab9319c7e620793c8d27a9ac7f1c</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
           <t>2024 Executable Code Actions Elicit Better LLM Agents</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="D205" t="inlineStr">
         <is>
           <t>arXiv:2402.01030v3  [cs.CL]  24 May 2024</t>
         </is>
@@ -3766,10 +4791,15 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
+          <t>fc9f607bbd6f9b06e462db97e4e708fc</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
           <t>2020 Fast autoregres-_sive transformers with linear attention</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="D206" t="inlineStr">
         <is>
           <t>arXiv:2006.16236v3  [cs.LG]  31 Aug 2020</t>
         </is>
@@ -3783,10 +4813,15 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
+          <t>d1caa65cbf11ef665a3535e52622b2dc</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
           <t>2021 SELF-ATTENTION DOES NOT NEED O(n_2_) MEMORY</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="D207" t="inlineStr">
         <is>
           <t>arXiv:2112.05682v3  [cs.LG]  10 Oct 2022</t>
         </is>
@@ -3800,10 +4835,15 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
+          <t>678777744bd43263727af2bb1f2ad744</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
           <t>2023 Blockwise Parallel Transformer_for Large Context Models</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="D208" t="inlineStr">
         <is>
           <t>arXiv:2305.19370v3  [cs.CL]  28 Aug 2023</t>
         </is>
@@ -3817,10 +4857,15 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
+          <t>0ef017c3cd74608de8e8669ab3499fd0</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
           <t>2023 GQA_ Training Generalized Multi-Query Transformer Models from_Multi-Head Checkpoints</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="D209" t="inlineStr">
         <is>
           <t>arXiv:2305.13245v1  [cs.CL]  22 May 2023</t>
         </is>
@@ -3834,10 +4879,15 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
+          <t>8c631abd8d2bf005bf96f0833bcc7c0a</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
           <t>2023 HyperAttention</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="D210" t="inlineStr">
         <is>
           <t>arXiv:2310.05869v2  [cs.LG]  11 Oct 2023</t>
         </is>
@@ -3851,10 +4901,15 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
+          <t>578f3ed19c2aa31411c3072159824af2</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
           <t>2023 Ring Attention</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="D211" t="inlineStr">
         <is>
           <t>arXiv:2310.01889v4  [cs.CL]  27 Nov 2023</t>
         </is>
@@ -3868,10 +4923,15 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
+          <t>55aa80b8292a13ec926864f5e31b9d45</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
           <t>2023 TransNormer</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="D212" t="inlineStr">
         <is>
           <t>arXiv:2307.14995v1  [cs.CL]  27 Jul 2023</t>
         </is>
@@ -3885,10 +4945,15 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
+          <t>581ae9728404ae98cbf783969d7a2232</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
           <t>2024 BurstAttention</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="D213" t="inlineStr">
         <is>
           <t>arXiv:2403.09347v1  [cs.DC]  14 Mar 2024</t>
         </is>
@@ -3902,10 +4967,15 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
+          <t>6db865e870d4912506c5ed4acc5755df</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
           <t>2024 Lightning Attention-2</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="D214" t="inlineStr">
         <is>
           <t>arXiv:2401.04658v1  [cs.CL]  9 Jan 2024</t>
         </is>
@@ -3919,10 +4989,15 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
+          <t>fc9f607bbd6f9b06e462db97e4e708fc</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
           <t>Fast Autoregressive Transformers with Linear Attention</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="D215" t="inlineStr">
         <is>
           <t>arXiv:2006.16236v3  [cs.LG]  31 Aug 2020</t>
         </is>
@@ -3936,10 +5011,15 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
+          <t>71e6e8bb3499c6529c66850a915d395e</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
           <t>Flash Attention</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="D216" t="inlineStr">
         <is>
           <t>arXiv:2205.14135v2  [cs.LG]  23 Jun 2022</t>
         </is>
@@ -3953,10 +5033,15 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
+          <t>6b03b07eff1d8488c46db5314154129f</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
           <t>ARC</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="D217" t="inlineStr">
         <is>
           <t>arXiv:1803.05457v1  [cs.AI]  14 Mar 2018</t>
         </is>
@@ -3970,10 +5055,15 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
+          <t>d4715cbd2bc65aafc0984fc4f33b75d7</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
           <t>HellaSwag</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="D218" t="inlineStr">
         <is>
           <t>arXiv:1905.07830v1  [cs.CL]  19 May 2019</t>
         </is>
@@ -3987,10 +5077,15 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
+          <t>7f9b4deac2dddae2c3fe0387b2245271</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
           <t>MMLU</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="D219" t="inlineStr">
         <is>
           <t>arXiv:2009.03300v3  [cs.CY]  12 Jan 2021</t>
         </is>
@@ -4004,10 +5099,15 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
+          <t>be1b3ceccc2ec530196c6a3cd068976c</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
           <t>Truthfull QA</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="D220" t="inlineStr">
         <is>
           <t>arXiv:2109.07958v2  [cs.CL]  8 May 2022</t>
         </is>
@@ -4021,10 +5121,15 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
+          <t>1bf48f674a82ff9f36ddb56499ccbd88</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
           <t>2024 Layer-Condensed KV Cache</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="D221" t="inlineStr">
         <is>
           <t>arXiv:2405.10637v1  [cs.CL]  17 May 2024</t>
         </is>
@@ -4038,10 +5143,15 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
+          <t>08834d4d41c733cff9fcd537adf661d4</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
           <t>LazyLLM_ DYNAMIC TOKEN PRUNING FOR EFFICIENT_LONG CONTEXT LLM INFERENCE</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="D222" t="inlineStr">
         <is>
           <t>arXiv:2407.14057v1  [cs.CL]  19 Jul 2024</t>
         </is>
@@ -4055,10 +5165,15 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
+          <t>1d9d2981a585d3029ebe1a6a51e2a569</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
           <t>2022 The Pile</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
+      <c r="D223" t="inlineStr">
         <is>
           <t>arXiv:2101.00027v1  [cs.CL]  31 Dec 2020</t>
         </is>
@@ -4072,10 +5187,15 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
+          <t>3f46e7ff7a4da78174e7655d6750fc08</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
           <t>2023 EXPERTQA</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
+      <c r="D224" t="inlineStr">
         <is>
           <t>arXiv:2309.07852v1  [cs.CL]  14 Sep 2023</t>
         </is>
@@ -4089,10 +5209,15 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
+          <t>5fdd0b00d82cf1388a659c56ca873808</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
           <t>2023 Refined Web Dataset (FALCON)</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="D225" t="inlineStr">
         <is>
           <t>arXiv:2306.01116v1  [cs.CL]  1 Jun 2023</t>
         </is>
@@ -4106,10 +5231,15 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
+          <t>5fdd0b00d82cf1388a659c56ca873808</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
           <t>2023 The RefinedWeb Dataset for Falcon LLM</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="D226" t="inlineStr">
         <is>
           <t>arXiv:2306.01116v1  [cs.CL]  1 Jun 2023</t>
         </is>
@@ -4123,10 +5253,15 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
+          <t>45977c8cc2686df98b281327989c254f</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
           <t>2024 How to Train Data-Efficient LLMs</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="D227" t="inlineStr">
         <is>
           <t>arXiv:2402.09668v1  [cs.LG]  15 Feb 2024</t>
         </is>
@@ -4140,10 +5275,15 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
+          <t>46ba4788c885ad963cc998b4255ffa7a</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
           <t>2024 Recurrent Drafter for Fast Speculative Decoding</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="D228" t="inlineStr">
         <is>
           <t>arXiv:2403.09919v1  [cs.CL]  14 Mar 2024</t>
         </is>
@@ -4157,10 +5297,15 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
+          <t>707cc7d8f13fc7199f861c3e45215d4c</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
           <t>vLLM</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
+      <c r="D229" t="inlineStr">
         <is>
           <t>arXiv:2309.06180v1  [cs.LG]  12 Sep 2023</t>
         </is>
@@ -4174,10 +5319,15 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
+          <t>224346b454f7a81a689aa7865739693c</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
           <t>2017 Efficient Natural Language Response Suggestion_for Smart Reply</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="D230" t="inlineStr">
         <is>
           <t>arXiv:1705.00652v1  [cs.CL]  1 May 2017</t>
         </is>
@@ -4191,10 +5341,15 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
+          <t>d93349b3f43d783626ff423bf7a6a2c1</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
           <t>2019 SBERT</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="D231" t="inlineStr">
         <is>
           <t>arXiv:1908.10084v1  [cs.CL]  27 Aug 2019</t>
         </is>
@@ -4208,10 +5363,15 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
+          <t>4396e4ce151e2dd40bed5901c7d12623</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
           <t>2020 Realm_ Retrieval-_augmented language model pre-training</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="D232" t="inlineStr">
         <is>
           <t>arXiv:2002.08909v1  [cs.CL]  10 Feb 2020</t>
         </is>
@@ -4225,10 +5385,15 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
+          <t>d1f88a9f3318676a9c457764c013a549</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
           <t>2021 Augmented SBERT</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="D233" t="inlineStr">
         <is>
           <t>arXiv:2010.08240v2  [cs.CL]  12 Apr 2021</t>
         </is>
@@ -4242,10 +5407,15 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
+          <t>7ffeb261628fe29569149e7b36f18709</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
           <t>2021 GTR</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="D234" t="inlineStr">
         <is>
           <t>arXiv:2112.07899v1  [cs.IR]  15 Dec 2021</t>
         </is>
@@ -4259,10 +5429,15 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
+          <t>3f660bc49f8fc29dd707453413ae6b75</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
           <t>2021 Scaling Deep Contrastive Learning Batch Size_under Memory Limited Setup</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="D235" t="inlineStr">
         <is>
           <t>arXiv:2101.06983v2  [cs.LG]  14 Jun 2021</t>
         </is>
@@ -4276,10 +5451,15 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
+          <t>27d81bb4137ba25a4a8044ba9e4f3742</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
           <t>2021 TSDAE_ Using Transformer-based Sequential Denoising Auto-Encoder_for Unsupervised Sentence Embedding Learning</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="D236" t="inlineStr">
         <is>
           <t>arXiv:2104.06979v3  [cs.CL]  10 Sep 2021</t>
         </is>
@@ -4293,10 +5473,15 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
+          <t>24298ab9efc7ec26df9244470a8b53a3</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
           <t>2022 retroMAE v2</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="D237" t="inlineStr">
         <is>
           <t>arXiv:2211.08769v1  [cs.CL]  16 Nov 2022</t>
         </is>
@@ -4310,10 +5495,15 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
+          <t>b0f2a7d49fce5bc55320b8af266f54df</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
           <t>2022 RetroMAE_</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
+      <c r="D238" t="inlineStr">
         <is>
           <t>arXiv:2205.12035v2  [cs.CL]  17 Oct 2022</t>
         </is>
@@ -4327,10 +5517,15 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
+          <t>521091e9286d41183b7e6a3211165843</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
           <t>2022 SimCSE</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
+      <c r="D239" t="inlineStr">
         <is>
           <t>arXiv:2104.08821v4  [cs.CL]  18 May 2022</t>
         </is>
@@ -4344,10 +5539,15 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
+          <t>1da6d0ceecc7c1706f8e5fa419082ba9</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
           <t>2023 ANGLE-OPTIMIZED TEXT EMBEDDINGS</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
+      <c r="D240" t="inlineStr">
         <is>
           <t>arXiv:2309.12871v6  [cs.CL]  8 Nov 2023</t>
         </is>
@@ -4361,10 +5561,15 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
+          <t>417eb2d1268816b459aed8ccc2ce66e2</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
           <t>2023 DEMYSTIFYING CLIP DATA</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
+      <c r="D241" t="inlineStr">
         <is>
           <t>arXiv:2309.16671v4  [cs.CV]  7 Apr 2024</t>
         </is>
@@ -4378,10 +5583,15 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
+          <t>b023b6eeed0510131bffa529db981e94</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
           <t>2023 DiffCSE</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
+      <c r="D242" t="inlineStr">
         <is>
           <t>arXiv:2204.10298v1  [cs.CL]  21 Apr 2022</t>
         </is>
@@ -4395,10 +5605,15 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
+          <t>d2d4725dc15ef650fed8a2ea12a26953</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
           <t>2023 Improving Text Embeddings with_Large Language Models</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="D243" t="inlineStr">
         <is>
           <t>arXiv:2401.00368v1  [cs.CL]  31 Dec 2023</t>
         </is>
@@ -4412,10 +5627,15 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
+          <t>fb26fb9e98f7f1d34e9e36cf3af55afe</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
           <t>202312 Retro++</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="D244" t="inlineStr">
         <is>
           <t>arXiv:2304.06762v3  [cs.CL]  21 Dec 2023</t>
         </is>
@@ -4429,10 +5649,15 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
+          <t>733c19e168aa4f21392013f2a10c6427</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
           <t>2024 Gecko</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
+      <c r="D245" t="inlineStr">
         <is>
           <t>arXiv:2403.20327v1  [cs.CL]  29 Mar 2024</t>
         </is>
@@ -4446,10 +5671,15 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
+          <t>a4d89cefa98139f16bde0007f3f3f3e9</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
           <t>2024 LLM2Vec</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
+      <c r="D246" t="inlineStr">
         <is>
           <t>arXiv:2404.05961v1  [cs.CL]  9 Apr 2024</t>
         </is>
@@ -4463,10 +5693,15 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
+          <t>f3080a3cb92f92fb71fa3d7095b7c8e1</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
           <t>2024 Matryoshka Representation Learning</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="D247" t="inlineStr">
         <is>
           <t>arXiv:2205.13147v4  [cs.LG]  8 Feb 2024</t>
         </is>
@@ -4480,10 +5715,15 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
+          <t>45a14152d9bdc4eaf8c280ce06709e5e</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
           <t>2024 Nomic Embed</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="D248" t="inlineStr">
         <is>
           <t>arXiv:2402.01613v1  [cs.CL]  2 Feb 2024</t>
         </is>
@@ -4497,10 +5737,15 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
+          <t>5c380f6d451da5de6e7fc22aabbe1e29</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
           <t>2024 Piccolo2</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="D249" t="inlineStr">
         <is>
           <t>arXiv:2405.06932v1  [cs.CL]  11 May 2024</t>
         </is>
@@ -4514,10 +5759,15 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
+          <t>93d0dad14351030a9f6492cf03a3a39d</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
           <t>2024 Repetition Improves Language Model Embeddings</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="D250" t="inlineStr">
         <is>
           <t>arXiv:2402.15449v1  [cs.CL]  23 Feb 2024</t>
         </is>
@@ -4531,10 +5781,15 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
+          <t>887fc8e4767ae2569bf98a11c4f02dba</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
           <t>2024 Scaling (Down) CLIP</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="D251" t="inlineStr">
         <is>
           <t>arXiv:2404.08197v2  [cs.CV]  16 Apr 2024</t>
         </is>
@@ -4548,10 +5803,15 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
+          <t>b204c7915d3dfcf30d5c2f67c0e67424</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
           <t>A Gradient Accumulation Method for Dense_Retriever under Memory Constraint</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="D252" t="inlineStr">
         <is>
           <t>arXiv:2406.12356v1  [cs.IR]  18 Jun 2024</t>
         </is>
@@ -4565,10 +5825,15 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
+          <t>06f1978f9006787f7571c2d96663feed</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
           <t>Improving Text Embeddings for Smaller Language Models</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="D253" t="inlineStr">
         <is>
           <t>arXiv:2408.00690v1  [cs.CL]  1 Aug 2024</t>
         </is>
@@ -4582,10 +5847,15 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
+          <t>e34a5c16e12b98f29ad54026bf6d6d4a</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
           <t>2023 Distilling Step-by-Step</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="D254" t="inlineStr">
         <is>
           <t>arXiv:2305.02301v2  [cs.CL]  5 Jul 2023</t>
         </is>
@@ -4599,10 +5869,15 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
+          <t>38dc825d3628a62d5486965edd82fda6</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
           <t>2023 Less Is More for Alignment</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="D255" t="inlineStr">
         <is>
           <t>arXiv:2305.11206v1  [cs.CL]  18 May 2023</t>
         </is>
@@ -4616,10 +5891,15 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
+          <t>2122ad404b2ec25d73121414d7e8aaa4</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
           <t>2024 BLADE</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="D256" t="inlineStr">
         <is>
           <t>arXiv:2403.18365v1  [cs.CL]  27 Mar 2024</t>
         </is>
@@ -4633,10 +5913,15 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
+          <t>3a78d8173c13b083a607c25cc266c99c</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
           <t>2024 DINO Direct Nash Optimization</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="D257" t="inlineStr">
         <is>
           <t>arXiv:2404.03715v1  [cs.LG]  4 Apr 2024</t>
         </is>
@@ -4650,10 +5935,15 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
+          <t>fb1ef55ec3ab468ee399ff73b098a754</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
           <t>2024 In-Context Learning Sufficient for Instruction Following in LLMs</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
+      <c r="D258" t="inlineStr">
         <is>
           <t>arXiv:2405.19874v1  [cs.CL]  30 May 2024</t>
         </is>
@@ -4667,10 +5957,15 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
+          <t>562dadf7b121bb0b3ecea85700e1e7ce</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
           <t>2024 Instruction-tuned Language Models are Better Knowledge Learners</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
+      <c r="D259" t="inlineStr">
         <is>
           <t>arXiv:2402.12847v1  [cs.CL]  20 Feb 2024</t>
         </is>
@@ -4684,10 +5979,15 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
+          <t>fa4b5ed122bb67fcf431173d345d0fee</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
           <t>2024 Self-Play Fine-Tuning</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="D260" t="inlineStr">
         <is>
           <t>arXiv:2401.01335v1  [cs.LG]  2 Jan 2024</t>
         </is>
@@ -4701,10 +6001,15 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
+          <t>f4669bdc1e3cff79468791ae2b3f14c1</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
           <t>2024 Toward Self-Improvement of LLMs via Imagination,_Searching, and Criticizing</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="D261" t="inlineStr">
         <is>
           <t>arXiv:2404.12253v1  [cs.CL]  18 Apr 2024</t>
         </is>
@@ -4718,10 +6023,15 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
+          <t>5656d7236c860d205299010ef2a6860d</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
           <t>2020 Dense Passage Retrieval for Open-Domain Question Answering</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="D262" t="inlineStr">
         <is>
           <t>arXiv:2004.04906v3  [cs.CL]  30 Sep 2020</t>
         </is>
@@ -4735,10 +6045,15 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
+          <t>4d2ede30f1bece17abee0ef9f3ce081a</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
           <t>2021 ANSWERING COMPLEX OPEN-DOMAIN QUESTIONS_WITH MULTI-HOP DENSE RETRIEVAL</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
+      <c r="D263" t="inlineStr">
         <is>
           <t>arXiv:2009.12756v2  [cs.CL]  19 Feb 2021</t>
         </is>
@@ -4752,10 +6067,15 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
+          <t>4d2ede30f1bece17abee0ef9f3ce081a</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
           <t>2023 ANSWERING COMPLEX OPEN-DOMAIN QUESTIONS_WITH MULTI-HOP DENSE RETRIEVAL</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="D264" t="inlineStr">
         <is>
           <t>arXiv:2009.12756v2  [cs.CL]  19 Feb 2021</t>
         </is>
@@ -4769,10 +6089,15 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
+          <t>1e3adad44c352e055ecba645b5330a18</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
           <t>2023 Knowledge Graph Prompting for Multi-Document Question Answering</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
+      <c r="D265" t="inlineStr">
         <is>
           <t>arXiv:2308.11730v1  [cs.CL]  22 Aug 2023</t>
         </is>
@@ -4786,10 +6111,15 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
+          <t>865eb5234134b480addd60a145f2057e</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
           <t>2024 KG roadmap</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
+      <c r="D266" t="inlineStr">
         <is>
           <t>arXiv:2306.08302v3  [cs.CL]  25 Jan 2024</t>
         </is>
@@ -4803,10 +6133,15 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
+          <t>0c4f31a2ef3b0350a1326751c51296eb</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
           <t>2024 RAG VS FINE-TUNING</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
+      <c r="D267" t="inlineStr">
         <is>
           <t>arXiv:2401.08406v2  [cs.CL]  17 Jan 2024</t>
         </is>
@@ -4820,10 +6155,15 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
+          <t>68f2ed85c4beec1b4ec959c3fbaf004a</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
           <t>2024 Self-discovery</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
+      <c r="D268" t="inlineStr">
         <is>
           <t>arXiv:2402.03620v1  [cs.AI]  6 Feb 2024</t>
         </is>
@@ -4837,10 +6177,15 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
+          <t>be5a180265450fcb5959618dc94d7186</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
           <t>202408  A Graph RAG Approach to_Query-Focused Summarization</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
+      <c r="D269" t="inlineStr">
         <is>
           <t>arXiv:2404.16130v1  [cs.CL]  24 Apr 2024</t>
         </is>
@@ -4854,10 +6199,15 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
+          <t>55ca61bac873209a02e298c3c8f13323</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
           <t>MUTUAL REASONING MAKES SMALLER LLMS_STRONGER PROBLEM-SOLVERS</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
+      <c r="D270" t="inlineStr">
         <is>
           <t>arXiv:2408.06195v1  [cs.CL]  12 Aug 2024</t>
         </is>
@@ -4871,10 +6221,15 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
+          <t>acb47d6c4ce87a62c9edd0db18610618</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
           <t>2022 Chinchilla</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
+      <c r="D271" t="inlineStr">
         <is>
           <t>arXiv:2203.15556v1  [cs.CL]  29 Mar 2022</t>
         </is>
@@ -4888,10 +6243,15 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
+          <t>9f9cbd26b481b1c8850f4db5f077b049</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
           <t>2022 Scaling Language Models_ Methods, Analysis_&amp; Insights from Training Gopher</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr">
+      <c r="D272" t="inlineStr">
         <is>
           <t>arXiv:2112.11446v2  [cs.CL]  21 Jan 2022</t>
         </is>
@@ -4905,10 +6265,15 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
+          <t>015a2e85bc2cb11b711d5933d34cea21</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
           <t>2023 Small-scale proxies for large-scale Transformer training instabilities</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
+      <c r="D273" t="inlineStr">
         <is>
           <t>arXiv:2309.14322v1  [cs.LG]  25 Sep 2023</t>
         </is>
@@ -4922,10 +6287,15 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
+          <t>4f20185e6a845732ec2828babaa58838</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
           <t>2024 Stealing Part of a Production Language Model</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
+      <c r="D274" t="inlineStr">
         <is>
           <t>arXiv:2403.06634v1  [cs.CR]  11 Mar 2024</t>
         </is>
@@ -4939,10 +6309,15 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
+          <t>35f6608821a06d89bb640d867f74cb1e</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
           <t>2024 Towards Optimal Learning of Language Models</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
+      <c r="D275" t="inlineStr">
         <is>
           <t>arXiv:2402.17759v1  [cs.CL]  27 Feb 2024</t>
         </is>
@@ -4956,10 +6331,15 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
+          <t>662552d0dd512ea5b9cdbef326ffb293</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
           <t>language_models_are_unsupervised_multitask_learners</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -4969,10 +6349,15 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
+          <t>cd98eff682738d964f39101f1df91493</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
           <t>Professor Forcing</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr">
+      <c r="D277" t="inlineStr">
         <is>
           <t>arXiv:1610.09038v1  [stat.ML]  27 Oct 2016</t>
         </is>
@@ -4986,10 +6371,15 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
+          <t>082f0f2df4935e17b475a43f1d7273e2</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
           <t>Teaching Small Language Models to Reason</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
+      <c r="D278" t="inlineStr">
         <is>
           <t>arXiv:2212.08410v2  [cs.CL]  19 Dec 2022</t>
         </is>
@@ -5003,10 +6393,15 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
+          <t>182af04d7b9485d587bc3d6a281ac07a</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
           <t>2024 LLM Agent Operating System</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
+      <c r="D279" t="inlineStr">
         <is>
           <t>arXiv:2403.16971v2  [cs.OS]  26 Mar 2024</t>
         </is>
@@ -5020,10 +6415,15 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
+          <t>d547656e3aed62dc9e21f40d688c1b9a</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
           <t>pearl</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
+      <c r="D280" t="inlineStr">
         <is>
           <t>arXiv:2305.14564v1  [cs.CL]  23 May 2023</t>
         </is>
@@ -5037,10 +6437,15 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
+          <t>1f7c949005ef9185e86e6a21d72387ac</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
           <t>2019 Sparse Transformer</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
+      <c r="D281" t="inlineStr">
         <is>
           <t>arXiv:1904.10509v1  [cs.LG]  23 Apr 2019</t>
         </is>
@@ -5054,10 +6459,15 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
+          <t>36984cf0dd76ab770073f2c6b5cd606f</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
           <t>2022 LongT5</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
+      <c r="D282" t="inlineStr">
         <is>
           <t>arXiv:2112.07916v2  [cs.CL]  3 May 2022</t>
         </is>
@@ -5071,10 +6481,15 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
+          <t>33d5c838f0236f85e2669122bea08c9f</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
           <t>2023 Cache Transformers</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
+      <c r="D283" t="inlineStr">
         <is>
           <t>arXiv:2312.12742v1  [cs.CV]  20 Dec 2023</t>
         </is>
@@ -5088,10 +6503,15 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
+          <t>151f44f34bd71df65e3c3d9e7b305306</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
           <t>2023 COLT5</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
+      <c r="D284" t="inlineStr">
         <is>
           <t>arXiv:2303.09752v3  [cs.CL]  24 Oct 2023</t>
         </is>
@@ -5105,10 +6525,15 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
+          <t>fd48c0d75a302fbfc3c0c68ac3b0cf1a</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
           <t>2023 Focused Transformer</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
+      <c r="D285" t="inlineStr">
         <is>
           <t>arXiv:2307.03170v1  [cs.CL]  6 Jul 2023</t>
         </is>
@@ -5122,10 +6547,15 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
+          <t>f519cfff6bcb253c0fc71946fbf30e75</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
           <t>2023 SLED (long document)</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -5135,10 +6565,15 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
+          <t>24146e69ee6f24feba5e9bfa95404d59</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
           <t>2024 Data Engineering for Scaling Language Models to 128K Context</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
+      <c r="D287" t="inlineStr">
         <is>
           <t>arXiv:2402.10171v1  [cs.CL]  15 Feb 2024</t>
         </is>
@@ -5152,10 +6587,15 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
+          <t>dcbfb468eba46d2705a58efcf94159d4</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
           <t>2024 In Search of Needles in a 10M Haystack(1)</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
+      <c r="D288" t="inlineStr">
         <is>
           <t>arXiv:2402.10790v1  [cs.CL]  16 Feb 2024</t>
         </is>
@@ -5169,10 +6609,15 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
+          <t>dcbfb468eba46d2705a58efcf94159d4</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
           <t>2024 In Search of Needles in a 10M Haystack</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr">
+      <c r="D289" t="inlineStr">
         <is>
           <t>arXiv:2402.10790v1  [cs.CL]  16 Feb 2024</t>
         </is>
@@ -5186,10 +6631,15 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
+          <t>cafba958081f733074d7e9b821c26f38</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
           <t>2024 In Search of Needles in a 11M Haystack</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr">
+      <c r="D290" t="inlineStr">
         <is>
           <t>arXiv:2402.10790v2  [cs.CL]  21 Feb 2024</t>
         </is>
@@ -5203,10 +6653,15 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
+          <t>77e0648e4efd4ad877fda9a3d2e9d788</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
           <t xml:space="preserve">2024 Infinite Context Transformers </t>
         </is>
       </c>
-      <c r="C291" t="inlineStr">
+      <c r="D291" t="inlineStr">
         <is>
           <t>arXiv:2404.07143v1  [cs.CL]  10 Apr 2024</t>
         </is>
@@ -5220,10 +6675,15 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
+          <t>4abb8c8fc702aabe986a1a115cc35ae9</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
           <t>2024 LLM Maybe LongLM</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr">
+      <c r="D292" t="inlineStr">
         <is>
           <t>arXiv:2401.01325v1  [cs.CL]  2 Jan 2024</t>
         </is>
@@ -5237,10 +6697,15 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
+          <t>06f54121c43e4c9c6a0f384ab9acf76e</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
           <t>2024 LongAlign</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr">
+      <c r="D293" t="inlineStr">
         <is>
           <t>arXiv:2401.18058v1  [cs.CL]  31 Jan 2024</t>
         </is>
@@ -5254,10 +6719,15 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
+          <t>8c3cd0bb1c0afbafb261e9b79a03afe9</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
           <t>2024 TransformerFAM</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr">
+      <c r="D294" t="inlineStr">
         <is>
           <t>arXiv:2404.09173v1  [cs.LG]  14 Apr 2024</t>
         </is>
@@ -5271,10 +6741,15 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
+          <t>b84706c9f19f2c750b1ba4d55f7f3eef</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
           <t>2024 Transformers Can Achieve Length_Generalization But Not Robustly</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr">
+      <c r="D295" t="inlineStr">
         <is>
           <t>arXiv:2402.09371v1  [cs.LG]  14 Feb 2024</t>
         </is>
@@ -5288,10 +6763,15 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
+          <t>f34bb3ef8541131be892282e05c306a7</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
           <t>202407 Summary of a Haystack</t>
         </is>
       </c>
-      <c r="C296" t="inlineStr">
+      <c r="D296" t="inlineStr">
         <is>
           <t>arXiv:2407.01370v1  [cs.CL]  1 Jul 2024</t>
         </is>
@@ -5305,10 +6785,15 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
+          <t>1998c8fe221a1a218f009574dc920906</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
           <t>202408 Dolphin</t>
         </is>
       </c>
-      <c r="C297" t="inlineStr">
+      <c r="D297" t="inlineStr">
         <is>
           <t>arXiv:2408.15518v1  [cs.CL]  28 Aug 2024</t>
         </is>
@@ -5322,10 +6807,15 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
+          <t>1121609b5b3ef42a50181fcc8a886a3a</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
           <t>An Exploration of Hierarchical Attention Transformers_for Efficient Long Document Classification</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr">
+      <c r="D298" t="inlineStr">
         <is>
           <t>arXiv:2210.05529v1  [cs.CL]  11 Oct 2022</t>
         </is>
@@ -5339,10 +6829,15 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
+          <t>483c0654ae488bc4fec4190df8be3b06</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
           <t>CLASSIFICATION OF LONG SEQUENTIAL DATA USING_CIRCULAR DILATED CONVOLUTIONAL NEURAL NETWORKS</t>
         </is>
       </c>
-      <c r="C299" t="inlineStr">
+      <c r="D299" t="inlineStr">
         <is>
           <t>arXiv:2201.02143v1  [cs.LG]  6 Jan 2022</t>
         </is>
@@ -5356,10 +6851,15 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
+          <t>1fc79243086df19c46ab699ecc8f391c</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
           <t>Efficient Classification of Long Documents Using Transformers</t>
         </is>
       </c>
-      <c r="C300" t="inlineStr"/>
+      <c r="D300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -5369,10 +6869,15 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
+          <t>423ccab13dcaf992363933a9d78482d3</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
           <t>HIERARCHICAL TRANSFORMERS FOR LONG DOCUMENT CLASSIFICATION</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr">
+      <c r="D301" t="inlineStr">
         <is>
           <t>arXiv:1910.10781v1  [cs.CL]  23 Oct 2019</t>
         </is>
@@ -5386,10 +6891,15 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
+          <t>31c4f4b8f63f667703a8d2223bd3dd3f</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
           <t>Revisiting Transformer-based Models for Long Document Classification</t>
         </is>
       </c>
-      <c r="C302" t="inlineStr"/>
+      <c r="D302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -5399,10 +6909,15 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
+          <t>c1a4e1d6b41d1620ca7b4b490e05164a</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
           <t>2019 BART</t>
         </is>
       </c>
-      <c r="C303" t="inlineStr">
+      <c r="D303" t="inlineStr">
         <is>
           <t>arXiv:1910.13461v1  [cs.CL]  29 Oct 2019</t>
         </is>
@@ -5416,10 +6931,15 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
+          <t>cca17e41d42b5533f5c5bbe302202d44</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
           <t>2022 InstructGPT</t>
         </is>
       </c>
-      <c r="C304" t="inlineStr">
+      <c r="D304" t="inlineStr">
         <is>
           <t>arXiv:2203.02155v1  [cs.CL]  4 Mar 2022</t>
         </is>
@@ -5433,10 +6953,15 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
+          <t>ea00fe551409e7b14231f9c40f0d4d05</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
           <t>2022 PalM</t>
         </is>
       </c>
-      <c r="C305" t="inlineStr">
+      <c r="D305" t="inlineStr">
         <is>
           <t>arXiv:2204.02311v5  [cs.CL]  5 Oct 2022</t>
         </is>
@@ -5450,10 +6975,15 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
+          <t>cd8fac1818401efa01d64985c2e05549</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
           <t>2023 Code LLaMa</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr">
+      <c r="D306" t="inlineStr">
         <is>
           <t>arXiv:2308.12950v2  [cs.CL]  25 Aug 2023</t>
         </is>
@@ -5467,10 +6997,15 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
+          <t>801aeec763b765623efd02a239cb2a7c</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
           <t>2023 deBERTinha</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr">
+      <c r="D307" t="inlineStr">
         <is>
           <t>arXiv:2309.16844v1  [cs.CL]  28 Sep 2023</t>
         </is>
@@ -5484,10 +7019,15 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
+          <t>0a184da69756a70a82d652f691fe9a2f</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
           <t>2023 Gemini</t>
         </is>
       </c>
-      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -5497,10 +7037,15 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
+          <t>d595ed4395ef722a490ca5652f09deb6</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
           <t>2023 LLAMA 2</t>
         </is>
       </c>
-      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -5510,10 +7055,15 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
+          <t>8ad11d7d6d3a9ce8a0870088ebbcdb00</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
           <t>2023 Mistral 7B</t>
         </is>
       </c>
-      <c r="C310" t="inlineStr">
+      <c r="D310" t="inlineStr">
         <is>
           <t>arXiv:2310.06825v1  [cs.CL]  10 Oct 2023</t>
         </is>
@@ -5527,10 +7077,15 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
+          <t>6c171ab2e3e29cd45d1de56b47482386</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
           <t>2023 Orca 2</t>
         </is>
       </c>
-      <c r="C311" t="inlineStr">
+      <c r="D311" t="inlineStr">
         <is>
           <t>arXiv:2311.11045v2  [cs.AI]  21 Nov 2023</t>
         </is>
@@ -5544,10 +7099,15 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
+          <t>a339a5023cac009ae3d04586cf608be5</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
           <t>2023 Orca</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr">
+      <c r="D312" t="inlineStr">
         <is>
           <t>arXiv:2306.02707v1  [cs.CL]  5 Jun 2023</t>
         </is>
@@ -5561,10 +7121,15 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
+          <t>a87d9d665f3235a0bdd2eaec41fd07ae</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
           <t>2023 Phi 1-5</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr">
+      <c r="D313" t="inlineStr">
         <is>
           <t>arXiv:2309.05463v1  [cs.CL]  11 Sep 2023</t>
         </is>
@@ -5578,10 +7143,15 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
+          <t>8731f28d39d9c70f25d8197736a1fa32</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
           <t>2023 PHI 1</t>
         </is>
       </c>
-      <c r="C314" t="inlineStr">
+      <c r="D314" t="inlineStr">
         <is>
           <t>arXiv:2306.11644v2  [cs.CL]  2 Oct 2023</t>
         </is>
@@ -5595,10 +7165,15 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
+          <t>a87d9d665f3235a0bdd2eaec41fd07ae</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
           <t>2023 Phi</t>
         </is>
       </c>
-      <c r="C315" t="inlineStr">
+      <c r="D315" t="inlineStr">
         <is>
           <t>arXiv:2309.05463v1  [cs.CL]  11 Sep 2023</t>
         </is>
@@ -5612,10 +7187,15 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
+          <t>90bc9b986eed71b33cb7d0ea31516f81</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
           <t>2023 Solar 10.7B</t>
         </is>
       </c>
-      <c r="C316" t="inlineStr">
+      <c r="D316" t="inlineStr">
         <is>
           <t>arXiv:2312.15166v2  [cs.CL]  29 Dec 2023</t>
         </is>
@@ -5629,10 +7209,15 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
+          <t>e067093841ae34e8771a3b896c5e128a</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
           <t>2023 ZEPHYR_ DIRECT DISTILLATION OF LM ALIGNMENT</t>
         </is>
       </c>
-      <c r="C317" t="inlineStr">
+      <c r="D317" t="inlineStr">
         <is>
           <t>arXiv:2310.16944v1  [cs.LG]  25 Oct 2023</t>
         </is>
@@ -5646,10 +7231,15 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
+          <t>70119449fe503087a3c1dd47b538e45e</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
           <t>2024 DeepSeek-V2</t>
         </is>
       </c>
-      <c r="C318" t="inlineStr">
+      <c r="D318" t="inlineStr">
         <is>
           <t>arXiv:2405.04434v2  [cs.CL]  8 May 2024</t>
         </is>
@@ -5663,10 +7253,15 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
+          <t>ad79fc6539a72123207c44dc01cbf0e3</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
           <t>2024 Gemini 1_5</t>
         </is>
       </c>
-      <c r="C319" t="inlineStr"/>
+      <c r="D319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -5676,10 +7271,15 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
+          <t>3b9c22517cb8caad7c7e8437f3734c8d</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
           <t>2024 gemini_v1_5_report</t>
         </is>
       </c>
-      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -5689,10 +7289,15 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
+          <t>70ec015dfba469760a38226c5dfcc9bd</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
           <t>2024 gemma-report</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -5702,10 +7307,15 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
+          <t>d9d22dd65a53c2edcdbfebcc49c1dbba</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
           <t>2024 Olmo</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr">
+      <c r="D322" t="inlineStr">
         <is>
           <t>arXiv:2402.00838v1  [cs.CL]  1 Feb 2024</t>
         </is>
@@ -5719,10 +7329,15 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
+          <t>6aeb49bc15280440553c43aa83b1acf0</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
           <t>2024 Phi-3</t>
         </is>
       </c>
-      <c r="C323" t="inlineStr">
+      <c r="D323" t="inlineStr">
         <is>
           <t>arXiv:2404.14219v1  [cs.CL]  22 Apr 2024</t>
         </is>
@@ -5736,10 +7351,15 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
+          <t>95424c0d53feaaf0875508c8a565992a</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
           <t>2024 Yi</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr">
+      <c r="D324" t="inlineStr">
         <is>
           <t>arXiv:2403.04652v1  [cs.CL]  7 Mar 2024</t>
         </is>
@@ -5753,10 +7373,15 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
+          <t>76279822cd8c70f8b4652f93bcbc304a</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
           <t>202407 LLAMA 3.1</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr"/>
+      <c r="D325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -5766,10 +7391,15 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
+          <t>60b08cb3ef1f43b732c83323bdbdf4aa</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
           <t>20240731 GEMMA 2</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr">
+      <c r="D326" t="inlineStr">
         <is>
           <t>arXiv:2408.00118v1  [cs.CL]  31 Jul 2024</t>
         </is>
@@ -5783,10 +7413,15 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
+          <t>be840bb6742dd6f6353a7aee4aff91f4</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
           <t xml:space="preserve">202408 EXAONE 3.0 7.8B </t>
         </is>
       </c>
-      <c r="C327" t="inlineStr">
+      <c r="D327" t="inlineStr">
         <is>
           <t>arXiv:2408.03541v2  [cs.CL]  8 Aug 2024</t>
         </is>
@@ -5800,10 +7435,15 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
+          <t>eb00ee1cacec4cdc5fdb41beff58f944</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
           <t>BERT</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr">
+      <c r="D328" t="inlineStr">
         <is>
           <t>arXiv:1810.04805v2  [cs.CL]  24 May 2019</t>
         </is>
@@ -5817,10 +7457,15 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
+          <t>124f62feaa4053f5706f33e821104b36</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
           <t>gemma-2-report</t>
         </is>
       </c>
-      <c r="C329" t="inlineStr"/>
+      <c r="D329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -5830,10 +7475,15 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
+          <t>bf17ace7b031e5cd04df86ad4bb29982</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
           <t>GPT</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr"/>
+      <c r="D330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -5843,10 +7493,15 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
+          <t>662552d0dd512ea5b9cdbef326ffb293</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
           <t>GPT2</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -5856,10 +7511,15 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
+          <t>f1798481561d9495486bc007180aa998</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
           <t>GPT3</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr">
+      <c r="D332" t="inlineStr">
         <is>
           <t>arXiv:2005.14165v4  [cs.CL]  22 Jul 2020</t>
         </is>
@@ -5873,10 +7533,15 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
+          <t>db32c3ed9b26866af7ff6522bfcd9ec8</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
           <t>LLamA</t>
         </is>
       </c>
-      <c r="C333" t="inlineStr"/>
+      <c r="D333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -5886,10 +7551,15 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
+          <t>ea612fd39a49dc1eac3e46b181498b3f</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
           <t>roBERTa(1)</t>
         </is>
       </c>
-      <c r="C334" t="inlineStr">
+      <c r="D334" t="inlineStr">
         <is>
           <t>arXiv:1907.11692v1  [cs.CL]  26 Jul 2019</t>
         </is>
@@ -5903,10 +7573,15 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
+          <t>ea612fd39a49dc1eac3e46b181498b3f</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
           <t>RoBERTa</t>
         </is>
       </c>
-      <c r="C335" t="inlineStr">
+      <c r="D335" t="inlineStr">
         <is>
           <t>arXiv:1907.11692v1  [cs.CL]  26 Jul 2019</t>
         </is>
@@ -5920,10 +7595,15 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
+          <t>436921c6a428f1872a5771b899a518f4</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
           <t>Sabia</t>
         </is>
       </c>
-      <c r="C336" t="inlineStr">
+      <c r="D336" t="inlineStr">
         <is>
           <t>arXiv:2304.07880v1  [cs.CL]  16 Apr 2023</t>
         </is>
@@ -5937,10 +7617,15 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
+          <t>ee07e609f42b50a45ff3a28a1e7da74b</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
           <t>T5</t>
         </is>
       </c>
-      <c r="C337" t="inlineStr">
+      <c r="D337" t="inlineStr">
         <is>
           <t>arXiv:1910.10683v3  [cs.LG]  28 Jul 2020</t>
         </is>
@@ -5954,10 +7639,15 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
+          <t>e79c64e3da60ee8edf955a9492ef533b</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
           <t>2023 Mixture-of-Experts Meets Instruction Tuning</t>
         </is>
       </c>
-      <c r="C338" t="inlineStr">
+      <c r="D338" t="inlineStr">
         <is>
           <t>arXiv:2305.14705v2  [cs.CL]  5 Jul 2023</t>
         </is>
@@ -5971,10 +7661,15 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
+          <t>8b2cab09c80ea4a1e87eb6e9bda1cd8a</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
           <t>2023 Towards MoE Deployment_ Mitigating Inefficiencies_in Mixture-of-Expert (MoE) Inference</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr">
+      <c r="D339" t="inlineStr">
         <is>
           <t>arXiv:2303.06182v2  [cs.DC]  18 Jun 2023</t>
         </is>
@@ -5988,10 +7683,15 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
+          <t>a00b100edd38fa4e31a2531f23adacd1</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
           <t>2024 Camelidae-8x34B</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr">
+      <c r="D340" t="inlineStr">
         <is>
           <t>arXiv:2401.02731v2  [cs.AI]  8 Jan 2024</t>
         </is>
@@ -6005,10 +7705,15 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
+          <t>f58f3c8acaa6d30e8b6da544540dbecb</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
           <t>2024 DeepSeekMoE</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
+      <c r="D341" t="inlineStr">
         <is>
           <t>arXiv:2401.06066v1  [cs.CL]  11 Jan 2024</t>
         </is>
@@ -6022,10 +7727,15 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
+          <t>5de1e550736bfaaafa67c41125259c1f</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
           <t>2024 Mixing Expert LLMs into a Mixture-of-Experts LLM</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
+      <c r="D342" t="inlineStr">
         <is>
           <t>arXiv:2403.07816v1  [cs.CL]  12 Mar 2024</t>
         </is>
@@ -6039,10 +7749,15 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
+          <t>8f0ad2af9f6808955106db664469322b</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
           <t>2024 Mixtral</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
+      <c r="D343" t="inlineStr">
         <is>
           <t>arXiv:2401.04088v1  [cs.LG]  8 Jan 2024</t>
         </is>
@@ -6056,10 +7771,15 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
+          <t>f90acf2f1085d7d99cd7c9f6aa908008</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
           <t>2024 Mixture-of-Depths</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr">
+      <c r="D344" t="inlineStr">
         <is>
           <t>arXiv:2404.02258v1  [cs.LG]  2 Apr 2024</t>
         </is>
@@ -6073,10 +7793,15 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
+          <t>e109304db521271a72c4e4bb066ea574</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
           <t>2024 Yuan 2.0-M32</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr"/>
+      <c r="D345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -6086,10 +7811,15 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
+          <t>f711e2629eebaac60ba71dd72412f302</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
           <t>202407 Mixture of A Million Experts</t>
         </is>
       </c>
-      <c r="C346" t="inlineStr">
+      <c r="D346" t="inlineStr">
         <is>
           <t>arXiv:2407.04153v1  [cs.LG]  4 Jul 2024</t>
         </is>
@@ -6103,10 +7833,15 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
+          <t>1706180b063d1308b55319d63903f181</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
           <t>202409 GRIN_ GRadient-INformed MoE</t>
         </is>
       </c>
-      <c r="C347" t="inlineStr">
+      <c r="D347" t="inlineStr">
         <is>
           <t>arXiv:2409.12136v1  [cs.CL]  18 Sep 2024</t>
         </is>
@@ -6120,10 +7855,15 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
+          <t>40036f1756338321a7ddbeaa59e99f8a</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
           <t>2023 UDOP</t>
         </is>
       </c>
-      <c r="C348" t="inlineStr">
+      <c r="D348" t="inlineStr">
         <is>
           <t>arXiv:2212.02623v3  [cs.CV]  13 Mar 2023</t>
         </is>
@@ -6137,10 +7877,15 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
+          <t>bacc6ce3b315557c25a34badfa33bc9b</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
           <t>202409 Towards OCR-2.0_via a Unified End-to-end Model</t>
         </is>
       </c>
-      <c r="C349" t="inlineStr">
+      <c r="D349" t="inlineStr">
         <is>
           <t>arXiv:2409.01704v1  [cs.CV]  3 Sep 2024</t>
         </is>
@@ -6154,10 +7899,15 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
+          <t>71497745a33e60d107cb9806f14655e2</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
           <t>2020 BertimBau</t>
         </is>
       </c>
-      <c r="C350" t="inlineStr"/>
+      <c r="D350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -6167,10 +7917,15 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
+          <t>fdd2c814b3e658d1fb7b8d7b988c7e4a</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
           <t>2020 PTT5</t>
         </is>
       </c>
-      <c r="C351" t="inlineStr">
+      <c r="D351" t="inlineStr">
         <is>
           <t>arXiv:2008.09144v2  [cs.CL]  8 Oct 2020</t>
         </is>
@@ -6184,10 +7939,15 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
+          <t>ea66d50be1781151ac18d6fc9e36f6a4</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
           <t>2022 Portuguese_SQuAD v1.1</t>
         </is>
       </c>
-      <c r="C352" t="inlineStr"/>
+      <c r="D352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -6197,10 +7957,15 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
+          <t>7d5674f5cabf8376ab05674ef19d8d79</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
           <t>2020 Improve Transformer Models with Better Relative Position Embeddings</t>
         </is>
       </c>
-      <c r="C353" t="inlineStr">
+      <c r="D353" t="inlineStr">
         <is>
           <t>arXiv:2009.13658v1  [cs.CL]  28 Sep 2020</t>
         </is>
@@ -6214,10 +7979,15 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
+          <t>3d59167f9dd3b4cbbfddf9f34e46f8f3</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
           <t>2022 ALiBi</t>
         </is>
       </c>
-      <c r="C354" t="inlineStr">
+      <c r="D354" t="inlineStr">
         <is>
           <t>arXiv:2108.12409v2  [cs.CL]  22 Apr 2022</t>
         </is>
@@ -6231,10 +8001,15 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
+          <t>4b7a5acbf69b0ba294bc1345dfc66d1c</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
           <t>2024 LASER</t>
         </is>
       </c>
-      <c r="C355" t="inlineStr">
+      <c r="D355" t="inlineStr">
         <is>
           <t>arXiv:2312.13558v1  [cs.LG]  21 Dec 2023</t>
         </is>
@@ -6248,10 +8023,15 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
+          <t>a5a48dbc104d5c815fd21b7f3903f81d</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
           <t>2024 LongRope</t>
         </is>
       </c>
-      <c r="C356" t="inlineStr">
+      <c r="D356" t="inlineStr">
         <is>
           <t>arXiv:2402.13753v1  [cs.CL]  21 Feb 2024</t>
         </is>
@@ -6265,10 +8045,15 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
+          <t>08dee182692d53fe2ee588b318d402a4</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
           <t>2024 Resonance RoPE</t>
         </is>
       </c>
-      <c r="C357" t="inlineStr">
+      <c r="D357" t="inlineStr">
         <is>
           <t>arXiv:2403.00071v1  [cs.CL]  29 Feb 2024</t>
         </is>
@@ -6282,10 +8067,15 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
+          <t>7d5674f5cabf8376ab05674ef19d8d79</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
           <t>Improve Transformer Models with Better Relative Position Embeddings</t>
         </is>
       </c>
-      <c r="C358" t="inlineStr">
+      <c r="D358" t="inlineStr">
         <is>
           <t>arXiv:2009.13658v1  [cs.CL]  28 Sep 2020</t>
         </is>
@@ -6299,10 +8089,15 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
+          <t>19f86300fa4fa4ebf6c8e2efdb68dde6</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
           <t>Roformer_ En-_hanced transformer with rotary position embedding</t>
         </is>
       </c>
-      <c r="C359" t="inlineStr">
+      <c r="D359" t="inlineStr">
         <is>
           <t>arXiv:2104.09864v4  [cs.CL]  9 Aug 2022</t>
         </is>
@@ -6316,10 +8111,15 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
+          <t>2d5682c90b20f31a67bfbc3e54f5d68c</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
           <t>Self-Attention with Relative Position Representations</t>
         </is>
       </c>
-      <c r="C360" t="inlineStr">
+      <c r="D360" t="inlineStr">
         <is>
           <t>arXiv:1803.02155v2  [cs.CL]  12 Apr 2018</t>
         </is>
@@ -6333,10 +8133,15 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
+          <t>652bf63701a5726bcffd722e555344b4</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
           <t>2024 Ineffectiveness of the Deeper Layers</t>
         </is>
       </c>
-      <c r="C361" t="inlineStr">
+      <c r="D361" t="inlineStr">
         <is>
           <t>arXiv:2403.17887v1  [cs.CL]  26 Mar 2024</t>
         </is>
@@ -6350,10 +8155,15 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
+          <t>1a37db00f31edcc8c00d1678f140d9a0</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
           <t>202408 Compact Language Models via Pruning and_Knowledge Distillation</t>
         </is>
       </c>
-      <c r="C362" t="inlineStr">
+      <c r="D362" t="inlineStr">
         <is>
           <t>arXiv:2407.14679v1  [cs.CL]  19 Jul 2024</t>
         </is>
@@ -6367,10 +8177,15 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
+          <t>a4cec3f577247b5139dc4fe6e7ff2af0</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
           <t>2024 Memory-Efficient LLM Training by Gradient Low-Rank Projection</t>
         </is>
       </c>
-      <c r="C363" t="inlineStr">
+      <c r="D363" t="inlineStr">
         <is>
           <t>arXiv:2403.03507v1  [cs.LG]  6 Mar 2024</t>
         </is>
@@ -6384,10 +8199,15 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
+          <t>45f0b9c45de94bd864bd260cc10f40eb</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
           <t>2024 The era of 1 bit LLMs</t>
         </is>
       </c>
-      <c r="C364" t="inlineStr">
+      <c r="D364" t="inlineStr">
         <is>
           <t>arXiv:2402.17764v1  [cs.CL]  27 Feb 2024</t>
         </is>
@@ -6401,10 +8221,15 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
+          <t>e54421646a4160193c9cef62a099c294</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
           <t>2024 MultiHop-RAG</t>
         </is>
       </c>
-      <c r="C365" t="inlineStr">
+      <c r="D365" t="inlineStr">
         <is>
           <t>arXiv:2401.15391v1  [cs.CL]  27 Jan 2024</t>
         </is>
@@ -6418,10 +8243,15 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
+          <t>8dcd2ab666417497d8e742811b2b9846</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
           <t>2024 RAFT</t>
         </is>
       </c>
-      <c r="C366" t="inlineStr">
+      <c r="D366" t="inlineStr">
         <is>
           <t>arXiv:2403.10131v1  [cs.CL]  15 Mar 2024</t>
         </is>
@@ -6435,10 +8265,15 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
+          <t>a8213dcc4f373af524472757d6b6faec</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
           <t>202407 RankRAG</t>
         </is>
       </c>
-      <c r="C367" t="inlineStr">
+      <c r="D367" t="inlineStr">
         <is>
           <t>arXiv:2407.02485v1  [cs.CL]  2 Jul 2024</t>
         </is>
@@ -6452,10 +8287,15 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
+          <t>788c15b1355b621ad5e8973b709827cf</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
           <t>202408 Improving Retrieval Augmented Language Model with Self-Reasoning</t>
         </is>
       </c>
-      <c r="C368" t="inlineStr">
+      <c r="D368" t="inlineStr">
         <is>
           <t>arXiv:2407.19813v2  [cs.CL]  2 Aug 2024</t>
         </is>
@@ -6469,10 +8309,15 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
+          <t>16df9323f053c7755ecefb25c2b7a771</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
           <t>2025 RAG survey</t>
         </is>
       </c>
-      <c r="C369" t="inlineStr">
+      <c r="D369" t="inlineStr">
         <is>
           <t>arXiv:2312.10997v5  [cs.CL]  27 Mar 2024</t>
         </is>
@@ -6486,10 +8331,15 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
+          <t>c11c18db8034616aa9f4da6793b6215d</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
           <t>Searching for Best Practices in Retrieval-Augmented_Generation</t>
         </is>
       </c>
-      <c r="C370" t="inlineStr">
+      <c r="D370" t="inlineStr">
         <is>
           <t>arXiv:2407.01219v1  [cs.CL]  1 Jul 2024</t>
         </is>
@@ -6503,10 +8353,15 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
+          <t>b6fb0f100531b53553e090a062bb1211</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
           <t>202407 Learning to (Learn at Test Time)</t>
         </is>
       </c>
-      <c r="C371" t="inlineStr">
+      <c r="D371" t="inlineStr">
         <is>
           <t>arXiv:2407.04620v1  [cs.LG]  5 Jul 2024</t>
         </is>
@@ -6520,10 +8375,15 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
+          <t>f4f2af3ca87a73a82930db9ebeec8ba9</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
           <t>2024 DenseMamba</t>
         </is>
       </c>
-      <c r="C372" t="inlineStr">
+      <c r="D372" t="inlineStr">
         <is>
           <t>arXiv:2403.00818v2  [cs.CL]  5 Mar 2024</t>
         </is>
@@ -6537,10 +8397,15 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
+          <t>a1493a755980c74f53fcc74a2568daca</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
           <t>2024 Jamba</t>
         </is>
       </c>
-      <c r="C373" t="inlineStr">
+      <c r="D373" t="inlineStr">
         <is>
           <t>arXiv:2403.19887v1  [cs.CL]  28 Mar 2024</t>
         </is>
@@ -6554,10 +8419,15 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
+          <t>3bcf1481b07cd1f845cceb7dae491e90</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
           <t>2024 MambaFormer</t>
         </is>
       </c>
-      <c r="C374" t="inlineStr">
+      <c r="D374" t="inlineStr">
         <is>
           <t>arXiv:2402.04248v1  [cs.LG]  6 Feb 2024</t>
         </is>
@@ -6571,10 +8441,15 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
+          <t>02835e0dd4b48c7783a0c5bae5e342a9</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
           <t>2024 Transformers are better than ssms on copying</t>
         </is>
       </c>
-      <c r="C375" t="inlineStr">
+      <c r="D375" t="inlineStr">
         <is>
           <t>arXiv:2402.01032v1  [cs.LG]  1 Feb 2024</t>
         </is>
@@ -6588,10 +8463,15 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
+          <t>222bc1cab48d364a0634fbbf98128a47</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
           <t>202405 Mamba</t>
         </is>
       </c>
-      <c r="C376" t="inlineStr">
+      <c r="D376" t="inlineStr">
         <is>
           <t>arXiv:2312.00752v2  [cs.LG]  31 May 2024</t>
         </is>
@@ -6605,10 +8485,15 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
+          <t>9cd67b9e10ae00c7a8ed9634a1a9643f</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
           <t>202407 Mamba 2</t>
         </is>
       </c>
-      <c r="C377" t="inlineStr">
+      <c r="D377" t="inlineStr">
         <is>
           <t>arXiv:2405.21060v1  [cs.LG]  31 May 2024</t>
         </is>
@@ -6622,10 +8507,15 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
+          <t>0e8d3560edaf9ff50c856c969563ff0d</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
           <t>202407 Samba</t>
         </is>
       </c>
-      <c r="C378" t="inlineStr">
+      <c r="D378" t="inlineStr">
         <is>
           <t>arXiv:2406.07522v1  [cs.CL]  11 Jun 2024</t>
         </is>
@@ -6639,10 +8529,15 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
+          <t>b36e05a016a5774bc55ed84d2cccd106</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
           <t>2019 Pegasus</t>
         </is>
       </c>
-      <c r="C379" t="inlineStr">
+      <c r="D379" t="inlineStr">
         <is>
           <t>arXiv:1912.08777v3  [cs.CL]  10 Jul 2020</t>
         </is>
@@ -6656,10 +8551,15 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
+          <t>4fa87b60b903026df17de8d58c12a036</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
           <t>2015 BPE</t>
         </is>
       </c>
-      <c r="C380" t="inlineStr">
+      <c r="D380" t="inlineStr">
         <is>
           <t>arXiv:1508.07909v5  [cs.CL]  10 Jun 2016</t>
         </is>
@@ -6673,10 +8573,15 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
+          <t>a6d7c1579c737d51a00bee98b95bf0a6</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
           <t>2018 SentencePiece</t>
         </is>
       </c>
-      <c r="C381" t="inlineStr">
+      <c r="D381" t="inlineStr">
         <is>
           <t>arXiv:1808.06226v1  [cs.CL]  19 Aug 2018</t>
         </is>
@@ -6690,10 +8595,15 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
+          <t>3e83b3d63132787bdc1390d88caa2c66</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
           <t>202408 Exploring Impact of Code in Pre-training</t>
         </is>
       </c>
-      <c r="C382" t="inlineStr">
+      <c r="D382" t="inlineStr">
         <is>
           <t>arXiv:2408.10914v1  [cs.CL]  20 Aug 2024</t>
         </is>
@@ -6707,10 +8617,15 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
+          <t>1cac64c3f13e8c188eefd782e38397a1</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
           <t>Efficient Training of Language Models to_Fill in the Middle</t>
         </is>
       </c>
-      <c r="C383" t="inlineStr">
+      <c r="D383" t="inlineStr">
         <is>
           <t>arXiv:2207.14255v1  [cs.CL]  28 Jul 2022</t>
         </is>
@@ -6724,10 +8639,15 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
+          <t>5a0f5e4d69a6209b6dc5d38f50113c10</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
           <t>202407 FreeLong</t>
         </is>
       </c>
-      <c r="C384" t="inlineStr">
+      <c r="D384" t="inlineStr">
         <is>
           <t>arXiv:2407.19918v1  [cs.CV]  29 Jul 2024</t>
         </is>
@@ -6741,10 +8661,15 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
+          <t>c8d955fc0ff6ecdd9ff244bd537dc948</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
           <t>Hierarchical Residual Learning Based Vector_Quantized Variational Autoencoder for_Image Reconstruction and Generation</t>
         </is>
       </c>
-      <c r="C385" t="inlineStr">
+      <c r="D385" t="inlineStr">
         <is>
           <t>arXiv:2208.04554v1  [cs.CV]  9 Aug 2022</t>
         </is>
@@ -6758,10 +8683,15 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
+          <t>adf0edd858cf5973682af1b4ec4a03e2</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
           <t>202408 Segment Anything 2</t>
         </is>
       </c>
-      <c r="C386" t="inlineStr">
+      <c r="D386" t="inlineStr">
         <is>
           <t>arXiv:2408.00714v1  [cs.CV]  1 Aug 2024</t>
         </is>
@@ -6775,10 +8705,15 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
+          <t>a3deb9512abab51a12d417c4306995c9</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
           <t>Segment Anything</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr"/>
+      <c r="D387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -6788,10 +8723,15 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
+          <t>0fdddbf878f270441a5ddb8a0be3bb83</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
           <t>2023 WALKING DOWN THE MEMORY MAZE</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr">
+      <c r="D388" t="inlineStr">
         <is>
           <t>arXiv:2310.05029v1  [cs.CL]  8 Oct 2023</t>
         </is>
@@ -6805,10 +8745,15 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
+          <t>54334486f8d7aba300d03ba031ab2679</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
           <t>2024 Best Practices and Lessons Learned on_Synthetic Data</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr">
+      <c r="D389" t="inlineStr">
         <is>
           <t>arXiv:2404.07503v1  [cs.CL]  11 Apr 2024</t>
         </is>
@@ -6822,10 +8767,15 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
+          <t>4c869db2f3b15d885372b2790e99d2fb</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
           <t>20240614 Alignment Data Synthesis from Scratch</t>
         </is>
       </c>
-      <c r="C390" t="inlineStr">
+      <c r="D390" t="inlineStr">
         <is>
           <t>arXiv:2406.08464v1  [cs.CL]  12 Jun 2024</t>
         </is>
@@ -6839,10 +8789,15 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
+          <t>cf8e7465d72bdda6a5b1763fec002252</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
           <t>2023 FLAN</t>
         </is>
       </c>
-      <c r="C391" t="inlineStr">
+      <c r="D391" t="inlineStr">
         <is>
           <t>arXiv:2301.13688v2  [cs.AI]  14 Feb 2023</t>
         </is>
@@ -6856,10 +8811,15 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
+          <t>d4962eface6a17f7fd6b36d6f4c01264</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
           <t>2024 RewardBench</t>
         </is>
       </c>
-      <c r="C392" t="inlineStr">
+      <c r="D392" t="inlineStr">
         <is>
           <t>arXiv:2403.13787v1  [cs.LG]  20 Mar 2024</t>
         </is>
@@ -6873,10 +8833,15 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
+          <t>7089ee34e844da6266979846a961de06</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
           <t>2019 Adapter</t>
         </is>
       </c>
-      <c r="C393" t="inlineStr">
+      <c r="D393" t="inlineStr">
         <is>
           <t>arXiv:1902.00751v2  [cs.LG]  13 Jun 2019</t>
         </is>
@@ -6890,10 +8855,15 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
+          <t>6071803f93e4573eb7e0fb2c4e65976a</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
           <t>2021 Lora</t>
         </is>
       </c>
-      <c r="C394" t="inlineStr">
+      <c r="D394" t="inlineStr">
         <is>
           <t>arXiv:2106.09685v2  [cs.CL]  16 Oct 2021</t>
         </is>
@@ -6907,10 +8877,15 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
+          <t>6981d020e74444b78238cefcaf129576</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
           <t>2023 LLama adapter</t>
         </is>
       </c>
-      <c r="C395" t="inlineStr">
+      <c r="D395" t="inlineStr">
         <is>
           <t>arXiv:2303.16199v2  [cs.CV]  14 Jun 2023</t>
         </is>
@@ -6924,10 +8899,15 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
+          <t>f4200e25fbbfd97990ec1996aafbc2fe</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
           <t>2023 qLoRa</t>
         </is>
       </c>
-      <c r="C396" t="inlineStr">
+      <c r="D396" t="inlineStr">
         <is>
           <t>arXiv:2305.14314v1  [cs.LG]  23 May 2023</t>
         </is>
@@ -6941,10 +8921,15 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
+          <t>3872935ef88f82581cb4cba303fe7b0a</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
           <t>2024 DORA</t>
         </is>
       </c>
-      <c r="C397" t="inlineStr">
+      <c r="D397" t="inlineStr">
         <is>
           <t>arXiv:2402.09353v3  [cs.CL]  5 Mar 2024</t>
         </is>
@@ -6958,10 +8943,15 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
+          <t>17adddb80713decb70c70a1772c7b4cc</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
           <t>2024 LoRA Learns Less and Forgets Less</t>
         </is>
       </c>
-      <c r="C398" t="inlineStr">
+      <c r="D398" t="inlineStr">
         <is>
           <t>arXiv:2405.09673v1  [cs.LG]  15 May 2024</t>
         </is>
@@ -6975,10 +8965,15 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
+          <t>9c8bfc72c430ea32b96e55a4ae7334f5</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
           <t>2023 Direct Preference Optimization(1)</t>
         </is>
       </c>
-      <c r="C399" t="inlineStr">
+      <c r="D399" t="inlineStr">
         <is>
           <t>arXiv:2305.18290v1  [cs.LG]  29 May 2023</t>
         </is>
@@ -6992,10 +8987,15 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
+          <t>9c8bfc72c430ea32b96e55a4ae7334f5</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
           <t>2023 Direct Preference Optimization</t>
         </is>
       </c>
-      <c r="C400" t="inlineStr">
+      <c r="D400" t="inlineStr">
         <is>
           <t>arXiv:2305.18290v1  [cs.LG]  29 May 2023</t>
         </is>
@@ -7009,10 +9009,15 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
+          <t>7ce30dad4edab590860f19d79e8a7229</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
           <t>2024 ORPO</t>
         </is>
       </c>
-      <c r="C401" t="inlineStr">
+      <c r="D401" t="inlineStr">
         <is>
           <t>arXiv:2403.07691v2  [cs.CL]  14 Mar 2024</t>
         </is>
@@ -7026,10 +9031,15 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
+          <t>4814dd7a9eb67130368ae5525eb20cab</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
           <t>2024 sDPO</t>
         </is>
       </c>
-      <c r="C402" t="inlineStr">
+      <c r="D402" t="inlineStr">
         <is>
           <t>arXiv:2403.19270v1  [cs.CL]  28 Mar 2024</t>
         </is>
@@ -7043,10 +9053,15 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
+          <t>f8f38e687be3778f6e404d85ba1fe1f4</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
           <t>2024 SimPO</t>
         </is>
       </c>
-      <c r="C403" t="inlineStr">
+      <c r="D403" t="inlineStr">
         <is>
           <t>arXiv:2405.14734v1  [cs.CL]  23 May 2024</t>
         </is>
@@ -7060,10 +9075,15 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
+          <t>926ef5bfb09f5ab47cb1e6942b18b57b</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
           <t>2023 Reinforced Self-Training (ReST) for Language_Modeling</t>
         </is>
       </c>
-      <c r="C404" t="inlineStr">
+      <c r="D404" t="inlineStr">
         <is>
           <t>arXiv:2308.08998v2  [cs.CL]  21 Aug 2023</t>
         </is>
@@ -7077,10 +9097,15 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
+          <t>c7a8964f86fd848edee9cd3a93605709</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
           <t>2023 RLAIF_ Scaling Reinforcement Learning from Human Feedback with AI_Feedback</t>
         </is>
       </c>
-      <c r="C405" t="inlineStr">
+      <c r="D405" t="inlineStr">
         <is>
           <t>arXiv:2309.00267v1  [cs.CL]  1 Sep 2023</t>
         </is>
@@ -7094,10 +9119,15 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
+          <t>f90cbe4f5c47c76bf91475843af1f4cb</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
           <t>2024 Teaching Large Language Models to Reason_with Reinforcement Learning</t>
         </is>
       </c>
-      <c r="C406" t="inlineStr">
+      <c r="D406" t="inlineStr">
         <is>
           <t>arXiv:2403.04642v1  [cs.LG]  7 Mar 2024</t>
         </is>
@@ -7111,10 +9141,15 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
+          <t>1471b25a9e7363f06d9127a3bae7ff3c</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
           <t>20240612 REINFORCE Style_Optimization</t>
         </is>
       </c>
-      <c r="C407" t="inlineStr">
+      <c r="D407" t="inlineStr">
         <is>
           <t>arXiv:2402.14740v2  [cs.LG]  26 Feb 2024</t>
         </is>
@@ -7128,10 +9163,15 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
+          <t>aa56ccfec30256c0a3dc3f7f5ced39bd</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
           <t>202407 A General_Framework for Steerable Multi-Objective_Finetuning</t>
         </is>
       </c>
-      <c r="C408" t="inlineStr">
+      <c r="D408" t="inlineStr">
         <is>
           <t>arXiv:2407.15762v1  [cs.LG]  22 Jul 2024</t>
         </is>
@@ -7145,10 +9185,15 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
+          <t>dace4c2310cff51f49591f3490aa01d4</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
           <t>202407 The Importance of Online Data</t>
         </is>
       </c>
-      <c r="C409" t="inlineStr">
+      <c r="D409" t="inlineStr">
         <is>
           <t>arXiv:2406.01462v2  [cs.LG]  16 Jul 2024</t>
         </is>
@@ -7162,10 +9207,15 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
+          <t>5552fd0496eb51effe56cd926995b28d</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
           <t>20240723 J-BOND</t>
         </is>
       </c>
-      <c r="C410" t="inlineStr">
+      <c r="D410" t="inlineStr">
         <is>
           <t>arXiv:2407.14622v1  [cs.LG]  19 Jul 2024</t>
         </is>
@@ -7179,10 +9229,15 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
+          <t>e5f49728317b3277f74be664e0e82229</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
           <t>Deep Reinforcement Learning_from Human Preferences</t>
         </is>
       </c>
-      <c r="C411" t="inlineStr">
+      <c r="D411" t="inlineStr">
         <is>
           <t>arXiv:1706.03741v3  [stat.ML]  13 Jul 2017</t>
         </is>
@@ -7196,10 +9251,15 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
+          <t>cca17e41d42b5533f5c5bbe302202d44</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
           <t>Training language models to follow instructions with human feedback</t>
         </is>
       </c>
-      <c r="C412" t="inlineStr">
+      <c r="D412" t="inlineStr">
         <is>
           <t>arXiv:2203.02155v1  [cs.CL]  4 Mar 2022</t>
         </is>
@@ -7213,10 +9273,15 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
+          <t>7cca13e57dd5cdbe442bf7a661600a77</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
           <t>2023 LM Infinite</t>
         </is>
       </c>
-      <c r="C413" t="inlineStr">
+      <c r="D413" t="inlineStr">
         <is>
           <t>arXiv:2308.16137v1  [cs.CL]  30 Aug 2023</t>
         </is>
@@ -7230,10 +9295,15 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
+          <t>e0d48c233f7baccf79681c78c9f79b7b</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
           <t>2023 LongNet</t>
         </is>
       </c>
-      <c r="C414" t="inlineStr">
+      <c r="D414" t="inlineStr">
         <is>
           <t>arXiv:2307.02486v1  [cs.CL]  5 Jul 2023</t>
         </is>
@@ -7247,10 +9317,15 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
+          <t>8873b564fad1c94e502b48c1c4ed4048</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
           <t>Longformer</t>
         </is>
       </c>
-      <c r="C415" t="inlineStr">
+      <c r="D415" t="inlineStr">
         <is>
           <t>arXiv:2004.05150v2  [cs.CL]  2 Dec 2020</t>
         </is>
@@ -7264,10 +9339,15 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
+          <t>a6d988fdf45f8074c8b93073509e1845</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
           <t>2022 MEMORIZING TRANSFORMERS</t>
         </is>
       </c>
-      <c r="C416" t="inlineStr">
+      <c r="D416" t="inlineStr">
         <is>
           <t>arXiv:2203.08913v1  [cs.LG]  16 Mar 2022</t>
         </is>
@@ -7281,10 +9361,15 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
+          <t>8f2bf8c6714524d06aeeae1f95d978b3</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
           <t>2022 Recurrent Memory Transformer</t>
         </is>
       </c>
-      <c r="C417" t="inlineStr">
+      <c r="D417" t="inlineStr">
         <is>
           <t>arXiv:2207.06881v2  [cs.CL]  8 Dec 2022</t>
         </is>
@@ -7298,10 +9383,15 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
+          <t>eb232b75deefd194b811e7cb6937be2f</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
           <t>202406 Extended Mind Transformers</t>
         </is>
       </c>
-      <c r="C418" t="inlineStr">
+      <c r="D418" t="inlineStr">
         <is>
           <t>arXiv:2406.02332v1  [cs.LG]  4 Jun 2024</t>
         </is>
@@ -7315,10 +9405,15 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
+          <t>ad6740a9e6376f921d0b7528c64fd5b5</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
           <t>202407 Associative Recurrent Memory Transformer</t>
         </is>
       </c>
-      <c r="C419" t="inlineStr">
+      <c r="D419" t="inlineStr">
         <is>
           <t>arXiv:2407.04841v1  [cs.CL]  5 Jul 2024</t>
         </is>
@@ -7332,10 +9427,15 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
+          <t>ad6740a9e6376f921d0b7528c64fd5b5</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
           <t>Associative Recurrent Memory Transformer</t>
         </is>
       </c>
-      <c r="C420" t="inlineStr">
+      <c r="D420" t="inlineStr">
         <is>
           <t>arXiv:2407.04841v1  [cs.CL]  5 Jul 2024</t>
         </is>
@@ -7349,10 +9449,15 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
+          <t>291d33237468d54852b79b90cb088b15</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
           <t>HUMAN-LIKE EPISODIC MEMORY FOR INFINITE CONTEXT LLMS</t>
         </is>
       </c>
-      <c r="C421" t="inlineStr">
+      <c r="D421" t="inlineStr">
         <is>
           <t>arXiv:2407.09450v1  [cs.AI]  12 Jul 2024</t>
         </is>
@@ -7366,10 +9471,15 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
+          <t>482a906908daca935a378c629b7fa9e6</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
           <t>2022  A length-extrapolatable transformer</t>
         </is>
       </c>
-      <c r="C422" t="inlineStr">
+      <c r="D422" t="inlineStr">
         <is>
           <t>arXiv:2212.10554v1  [cs.CL]  20 Dec 2022</t>
         </is>
@@ -7383,10 +9493,15 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
+          <t>7c6b49c973bde3fc782d99025a1cdf67</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
           <t>2023 Effective Long-Context Scaling of Foundation Models(1)</t>
         </is>
       </c>
-      <c r="C423" t="inlineStr"/>
+      <c r="D423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -7396,10 +9511,15 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
+          <t>3079341e2b8d28d16e121f438d9f884b</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
           <t>2023 Effective Long-Context Scaling of Foundation Models</t>
         </is>
       </c>
-      <c r="C424" t="inlineStr">
+      <c r="D424" t="inlineStr">
         <is>
           <t>arXiv:2309.16039v2  [cs.CL]  17 Oct 2023</t>
         </is>
@@ -7413,10 +9533,15 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
+          <t>e832b0767955ca753b066fee5b70c50b</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
           <t>2023 EXTENDING CONTEXT WINDOW OF LARGE LAN-_GUAGE MODELS VIA POSITION INTERPOLATION</t>
         </is>
       </c>
-      <c r="C425" t="inlineStr">
+      <c r="D425" t="inlineStr">
         <is>
           <t>arXiv:2306.15595v2  [cs.CL]  28 Jun 2023</t>
         </is>
@@ -7430,10 +9555,15 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
+          <t>e832b0767955ca753b066fee5b70c50b</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
           <t>2023 EXTENDING CONTEXT WINDOW OF LARGE</t>
         </is>
       </c>
-      <c r="C426" t="inlineStr">
+      <c r="D426" t="inlineStr">
         <is>
           <t>arXiv:2306.15595v2  [cs.CL]  28 Jun 2023</t>
         </is>
@@ -7447,10 +9577,15 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
+          <t>8ea11854fdd78a164e9be942c17ee49c</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
           <t>2023 Functional Interpolation for Relative Positions</t>
         </is>
       </c>
-      <c r="C427" t="inlineStr">
+      <c r="D427" t="inlineStr">
         <is>
           <t>arXiv:2310.04418v1  [cs.LG]  6 Oct 2023</t>
         </is>
@@ -7464,10 +9599,15 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
+          <t>68945b8a41324722c11237cfb1f46f48</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
           <t>2023 The Impact of Positional Encoding on Length Generalizartion</t>
         </is>
       </c>
-      <c r="C428" t="inlineStr">
+      <c r="D428" t="inlineStr">
         <is>
           <t>arXiv:2305.19466v1  [cs.CL]  31 May 2023</t>
         </is>
@@ -7481,10 +9621,15 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
+          <t>8677b40f2fab334af4d41b98d9c8538c</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
           <t>2023 YaRN_ Efficient Context Window Extension of Large_Language Models</t>
         </is>
       </c>
-      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -7494,10 +9639,15 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
+          <t>b363476e414983de20976784cf29a93d</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
           <t>2024 POSE</t>
         </is>
       </c>
-      <c r="C430" t="inlineStr">
+      <c r="D430" t="inlineStr">
         <is>
           <t>arXiv:2309.10400v3  [cs.CL]  21 Feb 2024</t>
         </is>
@@ -7511,10 +9661,15 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
+          <t>b84706c9f19f2c750b1ba4d55f7f3eef</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
           <t>2024 Transformers Can Achieve Length_Generalization But Not Robustly</t>
         </is>
       </c>
-      <c r="C431" t="inlineStr">
+      <c r="D431" t="inlineStr">
         <is>
           <t>arXiv:2402.09371v1  [cs.LG]  14 Feb 2024</t>
         </is>
@@ -7528,10 +9683,15 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
+          <t>9dc3983032e8fcf03c16b9d6e1f27b25</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
           <t>2024 BioMedLM</t>
         </is>
       </c>
-      <c r="C432" t="inlineStr">
+      <c r="D432" t="inlineStr">
         <is>
           <t>arXiv:2403.18421v1  [cs.CL]  27 Mar 2024</t>
         </is>
@@ -7545,10 +9705,15 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
+          <t>82927f935501885c063dc73b81f46e7c</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
           <t>2024 MobiLLama</t>
         </is>
       </c>
-      <c r="C433" t="inlineStr">
+      <c r="D433" t="inlineStr">
         <is>
           <t>arXiv:2402.16840v1  [cs.CL]  26 Feb 2024</t>
         </is>
@@ -7562,10 +9727,15 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
+          <t>0fe2ef51d464a5cae1876f2382379428</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
           <t>202407 MobileLLM</t>
         </is>
       </c>
-      <c r="C434" t="inlineStr">
+      <c r="D434" t="inlineStr">
         <is>
           <t>arXiv:2402.14905v2  [cs.LG]  27 Jun 2024</t>
         </is>
@@ -7579,10 +9749,15 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
+          <t>86e6ebd70db21452b91b026577cf5737</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
           <t>2024 Quiet-STaR</t>
         </is>
       </c>
-      <c r="C435" t="inlineStr">
+      <c r="D435" t="inlineStr">
         <is>
           <t>arXiv:2403.09629v1  [cs.CL]  14 Mar 2024</t>
         </is>
@@ -7596,10 +9771,15 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
+          <t>8cdec7acbfc428496678eee2a098fd1a</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
           <t>202409 Quiet-STaR</t>
         </is>
       </c>
-      <c r="C436" t="inlineStr">
+      <c r="D436" t="inlineStr">
         <is>
           <t>arXiv:2403.09629v2  [cs.CL]  18 Mar 2024</t>
         </is>
@@ -7613,10 +9793,15 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
+          <t>e5da92ab3430e8cf7c7b5c9ec7c1dca2</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
           <t>202409 Training Language Models_with Reflection for Mathematical Reasoning</t>
         </is>
       </c>
-      <c r="C437" t="inlineStr">
+      <c r="D437" t="inlineStr">
         <is>
           <t>arXiv:2406.12050v1  [cs.CL]  17 Jun 2024</t>
         </is>
@@ -7630,10 +9815,15 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
+          <t>90d86e47d5568dbce5599bc323c1140b</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
           <t>Scaling LLM Test-Time Compute Optimally can_be More Effective</t>
         </is>
       </c>
-      <c r="C438" t="inlineStr">
+      <c r="D438" t="inlineStr">
         <is>
           <t>arXiv:2408.03314v1  [cs.LG]  6 Aug 2024</t>
         </is>
@@ -7647,10 +9837,15 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
+          <t>edef4046488a7f83560ffb3b5c249a77</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
           <t>2024 GLAM</t>
         </is>
       </c>
-      <c r="C439" t="inlineStr">
+      <c r="D439" t="inlineStr">
         <is>
           <t>arXiv:2402.13064v1  [cs.CL]  20 Feb 2024</t>
         </is>
